--- a/data/Track_coordinates.xlsx
+++ b/data/Track_coordinates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ll/work/RStudioProjects/DT40_RFD/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ll/work/RStudioProjects/DT40_RFD copie/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB92504-04C2-0540-A9E2-550695C09B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CD82D2-31B9-7B42-B353-1663A9F7727E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="460" windowWidth="25600" windowHeight="18740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="760" windowWidth="25600" windowHeight="17720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wtCCSER1" sheetId="2" r:id="rId1"/>
@@ -534,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
@@ -4166,7 +4166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+    <sheetView topLeftCell="A231" workbookViewId="0">
       <selection activeCell="E256" sqref="E256"/>
     </sheetView>
   </sheetViews>
@@ -13081,8 +13081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13117,13 +13117,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <v>113994589.156536</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C2" s="3">
-        <v>114002781.59705301</v>
+        <v>114106371.218393</v>
       </c>
       <c r="D2" s="3">
-        <v>8192.4405174702406</v>
+        <v>221733.21582694401</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -13134,13 +13134,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>114743203.31122699</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C3" s="3">
-        <v>114754007.092159</v>
+        <v>114197258.05108801</v>
       </c>
       <c r="D3" s="3">
-        <v>10803.780932396599</v>
+        <v>312620.04852213</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -13151,13 +13151,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>114488775.80635101</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C4" s="3">
-        <v>114501883.711179</v>
+        <v>114220891.501087</v>
       </c>
       <c r="D4" s="3">
-        <v>13107.9048279374</v>
+        <v>336253.49852140201</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -13168,13 +13168,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>114407042.285041</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C5" s="3">
-        <v>114422505.516518</v>
+        <v>114395323.81812499</v>
       </c>
       <c r="D5" s="3">
-        <v>15463.231476709199</v>
+        <v>510685.81555856799</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -13185,16 +13185,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>114227107.412925</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C6" s="3">
-        <v>114242645.19561</v>
+        <v>113892116.472056</v>
       </c>
       <c r="D6" s="3">
-        <v>15537.7826854288</v>
+        <v>7478.4694894701197</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -13202,16 +13202,16 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>114410637.537562</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C7" s="3">
-        <v>114427236.241294</v>
+        <v>113893559.570453</v>
       </c>
       <c r="D7" s="3">
-        <v>16598.703732416001</v>
+        <v>8921.5678866058497</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -13219,16 +13219,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>114306051.40823901</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C8" s="3">
-        <v>114323069.76973701</v>
+        <v>113906397.739177</v>
       </c>
       <c r="D8" s="3">
-        <v>17018.361497923699</v>
+        <v>21759.736610516899</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -13236,16 +13236,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>113893559.570453</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C9" s="3">
-        <v>113911418.783564</v>
+        <v>113916201.735149</v>
       </c>
       <c r="D9" s="3">
-        <v>17859.213111549601</v>
+        <v>31563.732583254499</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -13253,16 +13253,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>114652381.19881199</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C10" s="3">
-        <v>114670853.820907</v>
+        <v>113922572.89373399</v>
       </c>
       <c r="D10" s="3">
-        <v>18472.622095286799</v>
+        <v>37934.891168177099</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -13270,16 +13270,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>113946327.079826</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C11" s="3">
-        <v>113965067.28750899</v>
+        <v>113931029.847675</v>
       </c>
       <c r="D11" s="3">
-        <v>18740.207683697299</v>
+        <v>46391.845108851703</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -13287,16 +13287,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>114504751.06535999</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C12" s="3">
-        <v>114524515.328109</v>
+        <v>113931597.891019</v>
       </c>
       <c r="D12" s="3">
-        <v>19764.262748375499</v>
+        <v>46959.888453230204</v>
       </c>
       <c r="E12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -13304,16 +13304,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="3">
-        <v>114734119.123559</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C13" s="3">
-        <v>114754497.819346</v>
+        <v>113935725.549768</v>
       </c>
       <c r="D13" s="3">
-        <v>20378.695787176399</v>
+        <v>51087.547202438102</v>
       </c>
       <c r="E13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -13321,16 +13321,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="3">
-        <v>113931597.891019</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C14" s="3">
-        <v>113953000.64187101</v>
+        <v>113941408.338539</v>
       </c>
       <c r="D14" s="3">
-        <v>21402.750851869499</v>
+        <v>56770.3359728902</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -13338,16 +13338,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="3">
-        <v>114875601.13761801</v>
+        <v>113884638.00256599</v>
       </c>
       <c r="C15" s="3">
-        <v>114899051.99860001</v>
+        <v>113979441.33401901</v>
       </c>
       <c r="D15" s="3">
-        <v>23450.860981225898</v>
+        <v>94803.331453159495</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -13355,13 +13355,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="3">
-        <v>114530051.574599</v>
+        <v>113891621.64864799</v>
       </c>
       <c r="C16" s="3">
-        <v>114554078.159338</v>
+        <v>114040594.5231</v>
       </c>
       <c r="D16" s="3">
-        <v>24026.5847385823</v>
+        <v>148972.87445208401</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -13372,13 +13372,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3">
-        <v>114556105.583555</v>
+        <v>113892116.472056</v>
       </c>
       <c r="C17" s="3">
-        <v>114583643.857921</v>
+        <v>113986122.06445</v>
       </c>
       <c r="D17" s="3">
-        <v>27538.274366393602</v>
+        <v>94005.592394679799</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -13389,13 +13389,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3">
-        <v>114522766.446869</v>
+        <v>113893559.570453</v>
       </c>
       <c r="C18" s="3">
-        <v>114551070.91923501</v>
+        <v>113911418.783564</v>
       </c>
       <c r="D18" s="3">
-        <v>28304.472365796501</v>
+        <v>17859.213111549601</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
@@ -13406,13 +13406,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="3">
-        <v>114434947.78555299</v>
+        <v>113893717.68455499</v>
       </c>
       <c r="C19" s="3">
-        <v>114463577.60021301</v>
+        <v>114009877.479408</v>
       </c>
       <c r="D19" s="3">
-        <v>28629.814659833901</v>
+        <v>116159.79485300199</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
@@ -13423,16 +13423,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="3">
-        <v>114414278.46293899</v>
+        <v>113897823.735742</v>
       </c>
       <c r="C20" s="3">
-        <v>114443976.059815</v>
+        <v>113915617.716546</v>
       </c>
       <c r="D20" s="3">
-        <v>29697.596875801599</v>
+        <v>17793.980803921801</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -13440,16 +13440,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="3">
-        <v>114448779.49250101</v>
+        <v>113901606.59515101</v>
       </c>
       <c r="C21" s="3">
-        <v>114480685.77134</v>
+        <v>113946327.079826</v>
       </c>
       <c r="D21" s="3">
-        <v>31906.278839290098</v>
+        <v>44720.484674677202</v>
       </c>
       <c r="E21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -13457,13 +13457,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="3">
-        <v>114562347.09676901</v>
+        <v>113906397.739177</v>
       </c>
       <c r="C22" s="3">
-        <v>114597004.294728</v>
+        <v>113959034.16950101</v>
       </c>
       <c r="D22" s="3">
-        <v>34657.197959542202</v>
+        <v>52636.430324673602</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
@@ -13474,13 +13474,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="3">
-        <v>114186874.951976</v>
+        <v>113911927.841337</v>
       </c>
       <c r="C23" s="3">
-        <v>114223781.691696</v>
+        <v>114315455.510709</v>
       </c>
       <c r="D23" s="3">
-        <v>36906.739720135898</v>
+        <v>403527.66937203699</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
@@ -13491,13 +13491,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="3">
-        <v>114417180.22537</v>
+        <v>113915617.716546</v>
       </c>
       <c r="C24" s="3">
-        <v>114455172.66827001</v>
+        <v>114121471.01272701</v>
       </c>
       <c r="D24" s="3">
-        <v>37992.442899718801</v>
+        <v>205853.296181321</v>
       </c>
       <c r="E24" t="s">
         <v>0</v>
@@ -13508,13 +13508,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="3">
-        <v>114711528.05921</v>
+        <v>113916201.735149</v>
       </c>
       <c r="C25" s="3">
-        <v>114750513.323495</v>
+        <v>113973620.19541</v>
       </c>
       <c r="D25" s="3">
-        <v>38985.2642849236</v>
+        <v>57418.460260227301</v>
       </c>
       <c r="E25" t="s">
         <v>0</v>
@@ -13525,13 +13525,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="3">
-        <v>114574622.956857</v>
+        <v>113916433.683621</v>
       </c>
       <c r="C26" s="3">
-        <v>114614087.683723</v>
+        <v>114034147.58444101</v>
       </c>
       <c r="D26" s="3">
-        <v>39464.726866215402</v>
+        <v>117713.900819167</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
@@ -13542,13 +13542,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="3">
-        <v>114442289.645934</v>
+        <v>113916593.436212</v>
       </c>
       <c r="C27" s="3">
-        <v>114483616.207313</v>
+        <v>114016519.50055701</v>
       </c>
       <c r="D27" s="3">
-        <v>41326.561379313403</v>
+        <v>99926.064345627994</v>
       </c>
       <c r="E27" t="s">
         <v>0</v>
@@ -13559,13 +13559,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="3">
-        <v>114525864.41825099</v>
+        <v>113917493.683019</v>
       </c>
       <c r="C28" s="3">
-        <v>114567338.648371</v>
+        <v>114037485.184707</v>
       </c>
       <c r="D28" s="3">
-        <v>41474.2301196306</v>
+        <v>119991.50168851</v>
       </c>
       <c r="E28" t="s">
         <v>0</v>
@@ -13576,13 +13576,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="3">
-        <v>114569858.131046</v>
+        <v>113922572.89373399</v>
       </c>
       <c r="C29" s="3">
-        <v>114611891.39282601</v>
+        <v>114032993.98641001</v>
       </c>
       <c r="D29" s="3">
-        <v>42033.2617794424</v>
+        <v>110421.092676029</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
@@ -13593,13 +13593,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="3">
-        <v>114438408.886861</v>
+        <v>113925870.14623199</v>
       </c>
       <c r="C30" s="3">
-        <v>114482330.40377399</v>
+        <v>114118057.01795299</v>
       </c>
       <c r="D30" s="3">
-        <v>43921.516913220199</v>
+        <v>192186.87172110399</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
@@ -13610,13 +13610,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="3">
-        <v>114785745.42596801</v>
+        <v>113931029.847675</v>
       </c>
       <c r="C31" s="3">
-        <v>114830599.037801</v>
+        <v>114025127.707431</v>
       </c>
       <c r="D31" s="3">
-        <v>44853.6118330955</v>
+        <v>94097.859756007805</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
@@ -13627,13 +13627,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="3">
-        <v>114181138.809937</v>
+        <v>113931597.891019</v>
       </c>
       <c r="C32" s="3">
-        <v>114226402.043796</v>
+        <v>113953000.64187101</v>
       </c>
       <c r="D32" s="3">
-        <v>45263.233858957799</v>
+        <v>21402.750851869499</v>
       </c>
       <c r="E32" t="s">
         <v>0</v>
@@ -13644,13 +13644,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="3">
-        <v>114510676.452776</v>
+        <v>113935633.999246</v>
       </c>
       <c r="C33" s="3">
-        <v>114560445.528919</v>
+        <v>114081442.85076401</v>
       </c>
       <c r="D33" s="3">
-        <v>49769.076143562699</v>
+        <v>145808.85151874999</v>
       </c>
       <c r="E33" t="s">
         <v>0</v>
@@ -13661,13 +13661,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="3">
-        <v>114175108.764094</v>
+        <v>113935725.549768</v>
       </c>
       <c r="C34" s="3">
-        <v>114227284.36963999</v>
+        <v>114148870.63003799</v>
       </c>
       <c r="D34" s="3">
-        <v>52175.605545565399</v>
+        <v>213145.080269411</v>
       </c>
       <c r="E34" t="s">
         <v>0</v>
@@ -13678,13 +13678,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="3">
-        <v>113906397.739177</v>
+        <v>113937229.681848</v>
       </c>
       <c r="C35" s="3">
-        <v>113959034.16950101</v>
+        <v>114151134.610975</v>
       </c>
       <c r="D35" s="3">
-        <v>52636.430324673602</v>
+        <v>213904.92912737999</v>
       </c>
       <c r="E35" t="s">
         <v>0</v>
@@ -13695,13 +13695,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="3">
-        <v>114074435.753984</v>
+        <v>113937729.420719</v>
       </c>
       <c r="C36" s="3">
-        <v>114130122.946752</v>
+        <v>114262287.186184</v>
       </c>
       <c r="D36" s="3">
-        <v>55687.192767873399</v>
+        <v>324557.76546455902</v>
       </c>
       <c r="E36" t="s">
         <v>0</v>
@@ -13712,13 +13712,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="3">
-        <v>114728120.92582899</v>
+        <v>113941408.338539</v>
       </c>
       <c r="C37" s="3">
-        <v>114784448.15301199</v>
+        <v>113999032.12184</v>
       </c>
       <c r="D37" s="3">
-        <v>56327.227183297196</v>
+        <v>57623.783300697803</v>
       </c>
       <c r="E37" t="s">
         <v>0</v>
@@ -13729,13 +13729,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="3">
-        <v>114338190.5572</v>
+        <v>113946327.079826</v>
       </c>
       <c r="C38" s="3">
-        <v>114394615.47923601</v>
+        <v>113965067.28750899</v>
       </c>
       <c r="D38" s="3">
-        <v>56424.922036483797</v>
+        <v>18740.207683697299</v>
       </c>
       <c r="E38" t="s">
         <v>0</v>
@@ -13746,13 +13746,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="3">
-        <v>113916201.735149</v>
+        <v>113947609.09436101</v>
       </c>
       <c r="C39" s="3">
-        <v>113973620.19541</v>
+        <v>114028096.852685</v>
       </c>
       <c r="D39" s="3">
-        <v>57418.460260227301</v>
+        <v>80487.758324354902</v>
       </c>
       <c r="E39" t="s">
         <v>0</v>
@@ -13763,13 +13763,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="3">
-        <v>114733236.38809299</v>
+        <v>113949272.97903</v>
       </c>
       <c r="C40" s="3">
-        <v>114790729.91159</v>
+        <v>114021697.94220801</v>
       </c>
       <c r="D40" s="3">
-        <v>57493.523496478701</v>
+        <v>72424.963178083301</v>
       </c>
       <c r="E40" t="s">
         <v>0</v>
@@ -13780,13 +13780,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="3">
-        <v>113941408.338539</v>
+        <v>113952864.03292599</v>
       </c>
       <c r="C41" s="3">
-        <v>113999032.12184</v>
+        <v>114124141.133903</v>
       </c>
       <c r="D41" s="3">
-        <v>57623.783300697803</v>
+        <v>171277.100977391</v>
       </c>
       <c r="E41" t="s">
         <v>0</v>
@@ -13797,13 +13797,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="3">
-        <v>114016270.962393</v>
+        <v>113962441.40551201</v>
       </c>
       <c r="C42" s="3">
-        <v>114073971.85704</v>
+        <v>114255451.00419401</v>
       </c>
       <c r="D42" s="3">
-        <v>57700.894647061803</v>
+        <v>293009.59868138999</v>
       </c>
       <c r="E42" t="s">
         <v>0</v>
@@ -13814,16 +13814,16 @@
         <v>8</v>
       </c>
       <c r="B43" s="3">
-        <v>114677110.38773</v>
+        <v>113970445.215087</v>
       </c>
       <c r="C43" s="3">
-        <v>114741317.61623099</v>
+        <v>113991641.311627</v>
       </c>
       <c r="D43" s="3">
-        <v>64207.228500515201</v>
+        <v>21196.096539810202</v>
       </c>
       <c r="E43" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -13831,16 +13831,16 @@
         <v>8</v>
       </c>
       <c r="B44" s="3">
-        <v>114397026.616886</v>
+        <v>113973620.19541</v>
       </c>
       <c r="C44" s="3">
-        <v>114462259.026912</v>
+        <v>114005266.364262</v>
       </c>
       <c r="D44" s="3">
-        <v>65232.410025775403</v>
+        <v>31646.168852865601</v>
       </c>
       <c r="E44" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -13848,13 +13848,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="3">
-        <v>114746203.690161</v>
+        <v>113979257.618541</v>
       </c>
       <c r="C45" s="3">
-        <v>114813924.34918299</v>
+        <v>114118730.846185</v>
       </c>
       <c r="D45" s="3">
-        <v>67720.659021928906</v>
+        <v>139473.22764456301</v>
       </c>
       <c r="E45" t="s">
         <v>0</v>
@@ -13865,13 +13865,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="3">
-        <v>114665682.34283</v>
+        <v>113991641.311627</v>
       </c>
       <c r="C46" s="3">
-        <v>114734396.43767001</v>
+        <v>114132657.687848</v>
       </c>
       <c r="D46" s="3">
-        <v>68714.094840183898</v>
+        <v>141016.37622152301</v>
       </c>
       <c r="E46" t="s">
         <v>0</v>
@@ -13882,13 +13882,13 @@
         <v>8</v>
       </c>
       <c r="B47" s="3">
-        <v>114170740.247594</v>
+        <v>113994589.156536</v>
       </c>
       <c r="C47" s="3">
-        <v>114240168.825653</v>
+        <v>114002781.59705301</v>
       </c>
       <c r="D47" s="3">
-        <v>69428.578058838801</v>
+        <v>8192.4405174702406</v>
       </c>
       <c r="E47" t="s">
         <v>0</v>
@@ -13899,16 +13899,16 @@
         <v>8</v>
       </c>
       <c r="B48" s="3">
-        <v>114177084.780747</v>
+        <v>114005333.64467999</v>
       </c>
       <c r="C48" s="3">
-        <v>114248154.202236</v>
+        <v>114074435.753984</v>
       </c>
       <c r="D48" s="3">
-        <v>71069.421488955602</v>
+        <v>69102.109304204598</v>
       </c>
       <c r="E48" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -13916,13 +13916,13 @@
         <v>8</v>
       </c>
       <c r="B49" s="3">
-        <v>113949272.97903</v>
+        <v>114011118.94136301</v>
       </c>
       <c r="C49" s="3">
-        <v>114021697.94220801</v>
+        <v>114154567.345957</v>
       </c>
       <c r="D49" s="3">
-        <v>72424.963178083301</v>
+        <v>143448.40459464499</v>
       </c>
       <c r="E49" t="s">
         <v>0</v>
@@ -13933,13 +13933,13 @@
         <v>8</v>
       </c>
       <c r="B50" s="3">
-        <v>114530609.479799</v>
+        <v>114016270.962393</v>
       </c>
       <c r="C50" s="3">
-        <v>114604136.633443</v>
+        <v>114073971.85704</v>
       </c>
       <c r="D50" s="3">
-        <v>73527.153644204096</v>
+        <v>57700.894647061803</v>
       </c>
       <c r="E50" t="s">
         <v>0</v>
@@ -13950,13 +13950,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="3">
-        <v>114387534.03605901</v>
+        <v>114020886.788192</v>
       </c>
       <c r="C51" s="3">
-        <v>114464421.933614</v>
+        <v>114390966.56623</v>
       </c>
       <c r="D51" s="3">
-        <v>76887.897555470496</v>
+        <v>370079.778038383</v>
       </c>
       <c r="E51" t="s">
         <v>0</v>
@@ -13967,13 +13967,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="3">
-        <v>113947609.09436101</v>
+        <v>114021822.262493</v>
       </c>
       <c r="C52" s="3">
-        <v>114028096.852685</v>
+        <v>114139422.4932</v>
       </c>
       <c r="D52" s="3">
-        <v>80487.758324354902</v>
+        <v>117600.23070699</v>
       </c>
       <c r="E52" t="s">
         <v>0</v>
@@ -13984,13 +13984,13 @@
         <v>8</v>
       </c>
       <c r="B53" s="3">
-        <v>114183188.353743</v>
+        <v>114022027.790345</v>
       </c>
       <c r="C53" s="3">
-        <v>114266075.165868</v>
+        <v>114268542.216924</v>
       </c>
       <c r="D53" s="3">
-        <v>82886.812124401302</v>
+        <v>246514.42657961001</v>
       </c>
       <c r="E53" t="s">
         <v>0</v>
@@ -14001,13 +14001,13 @@
         <v>8</v>
       </c>
       <c r="B54" s="3">
-        <v>114411804.243497</v>
+        <v>114039918.851569</v>
       </c>
       <c r="C54" s="3">
-        <v>114494811.17728101</v>
+        <v>114187937.409106</v>
       </c>
       <c r="D54" s="3">
-        <v>83006.933783471599</v>
+        <v>148018.557537302</v>
       </c>
       <c r="E54" t="s">
         <v>0</v>
@@ -14018,13 +14018,13 @@
         <v>8</v>
       </c>
       <c r="B55" s="3">
-        <v>114164476.92200699</v>
+        <v>114068177.241457</v>
       </c>
       <c r="C55" s="3">
-        <v>114247745.809076</v>
+        <v>114228942.5196</v>
       </c>
       <c r="D55" s="3">
-        <v>83268.887069001794</v>
+        <v>160765.27814392699</v>
       </c>
       <c r="E55" t="s">
         <v>0</v>
@@ -14035,13 +14035,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="3">
-        <v>114417917.749828</v>
+        <v>114071209.26369201</v>
       </c>
       <c r="C56" s="3">
-        <v>114505268.008357</v>
+        <v>114271400.45701499</v>
       </c>
       <c r="D56" s="3">
-        <v>87350.258529320403</v>
+        <v>200191.19332319501</v>
       </c>
       <c r="E56" t="s">
         <v>0</v>
@@ -14052,13 +14052,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="3">
-        <v>114170038.66746899</v>
+        <v>114074435.753984</v>
       </c>
       <c r="C57" s="3">
-        <v>114257976.938416</v>
+        <v>114130122.946752</v>
       </c>
       <c r="D57" s="3">
-        <v>87938.270947456404</v>
+        <v>55687.192767873399</v>
       </c>
       <c r="E57" t="s">
         <v>0</v>
@@ -14069,13 +14069,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="3">
-        <v>114661637.325325</v>
+        <v>114081785.806806</v>
       </c>
       <c r="C58" s="3">
-        <v>114750474.10218599</v>
+        <v>114197034.90949</v>
       </c>
       <c r="D58" s="3">
-        <v>88836.776861190796</v>
+        <v>115249.102683991</v>
       </c>
       <c r="E58" t="s">
         <v>0</v>
@@ -14086,13 +14086,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="3">
-        <v>114181596.15292899</v>
+        <v>114095693.293828</v>
       </c>
       <c r="C59" s="3">
-        <v>114274014.45997301</v>
+        <v>114242235.57358401</v>
       </c>
       <c r="D59" s="3">
-        <v>92418.307044431596</v>
+        <v>146542.27975606901</v>
       </c>
       <c r="E59" t="s">
         <v>0</v>
@@ -14103,13 +14103,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="3">
-        <v>114183803.29881001</v>
+        <v>114110703.073722</v>
       </c>
       <c r="C60" s="3">
-        <v>114276275.47115099</v>
+        <v>114262170.648717</v>
       </c>
       <c r="D60" s="3">
-        <v>92472.1723408252</v>
+        <v>151467.574995145</v>
       </c>
       <c r="E60" t="s">
         <v>0</v>
@@ -14120,13 +14120,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="3">
-        <v>113892116.472056</v>
+        <v>114138191.57901201</v>
       </c>
       <c r="C61" s="3">
-        <v>113986122.06445</v>
+        <v>114265584.02905899</v>
       </c>
       <c r="D61" s="3">
-        <v>94005.592394679799</v>
+        <v>127392.45004651</v>
       </c>
       <c r="E61" t="s">
         <v>0</v>
@@ -14137,16 +14137,16 @@
         <v>8</v>
       </c>
       <c r="B62" s="3">
-        <v>113931029.847675</v>
+        <v>114141917.50096001</v>
       </c>
       <c r="C62" s="3">
-        <v>114025127.707431</v>
+        <v>114181138.809937</v>
       </c>
       <c r="D62" s="3">
-        <v>94097.859756007805</v>
+        <v>39221.308977335597</v>
       </c>
       <c r="E62" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -14154,13 +14154,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="3">
-        <v>114697907.922039</v>
+        <v>114159021.26865</v>
       </c>
       <c r="C63" s="3">
-        <v>114793749.235542</v>
+        <v>114264150.35196801</v>
       </c>
       <c r="D63" s="3">
-        <v>95841.313503622994</v>
+        <v>105129.08331829299</v>
       </c>
       <c r="E63" t="s">
         <v>0</v>
@@ -14171,13 +14171,13 @@
         <v>8</v>
       </c>
       <c r="B64" s="3">
-        <v>114306703.321693</v>
+        <v>114164476.92200699</v>
       </c>
       <c r="C64" s="3">
-        <v>114404503.754941</v>
+        <v>114247745.809076</v>
       </c>
       <c r="D64" s="3">
-        <v>97800.433247864203</v>
+        <v>83268.887069001794</v>
       </c>
       <c r="E64" t="s">
         <v>0</v>
@@ -14188,16 +14188,16 @@
         <v>8</v>
       </c>
       <c r="B65" s="3">
-        <v>113916593.436212</v>
+        <v>114166421.295358</v>
       </c>
       <c r="C65" s="3">
-        <v>114016519.50055701</v>
+        <v>114280342.301029</v>
       </c>
       <c r="D65" s="3">
-        <v>99926.064345627994</v>
+        <v>113921.005670592</v>
       </c>
       <c r="E65" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -14205,13 +14205,13 @@
         <v>8</v>
       </c>
       <c r="B66" s="3">
-        <v>114457856.716594</v>
+        <v>114170038.66746899</v>
       </c>
       <c r="C66" s="3">
-        <v>114558873.399584</v>
+        <v>114257976.938416</v>
       </c>
       <c r="D66" s="3">
-        <v>101016.682989523</v>
+        <v>87938.270947456404</v>
       </c>
       <c r="E66" t="s">
         <v>0</v>
@@ -14222,13 +14222,13 @@
         <v>8</v>
       </c>
       <c r="B67" s="3">
-        <v>114609732.787155</v>
+        <v>114170740.247594</v>
       </c>
       <c r="C67" s="3">
-        <v>114710907.072219</v>
+        <v>114240168.825653</v>
       </c>
       <c r="D67" s="3">
-        <v>101174.28506396701</v>
+        <v>69428.578058838801</v>
       </c>
       <c r="E67" t="s">
         <v>0</v>
@@ -14239,13 +14239,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="3">
-        <v>114587881.192968</v>
+        <v>114175108.764094</v>
       </c>
       <c r="C68" s="3">
-        <v>114689435.607272</v>
+        <v>114227284.36963999</v>
       </c>
       <c r="D68" s="3">
-        <v>101554.414303988</v>
+        <v>52175.605545565399</v>
       </c>
       <c r="E68" t="s">
         <v>0</v>
@@ -14256,13 +14256,13 @@
         <v>8</v>
       </c>
       <c r="B69" s="3">
-        <v>114205946.44147301</v>
+        <v>114177084.780747</v>
       </c>
       <c r="C69" s="3">
-        <v>114308264.49363901</v>
+        <v>114248154.202236</v>
       </c>
       <c r="D69" s="3">
-        <v>102318.052165717</v>
+        <v>71069.421488955602</v>
       </c>
       <c r="E69" t="s">
         <v>0</v>
@@ -14273,13 +14273,13 @@
         <v>8</v>
       </c>
       <c r="B70" s="3">
-        <v>114500151.31722599</v>
+        <v>114181138.809937</v>
       </c>
       <c r="C70" s="3">
-        <v>114604970.82869899</v>
+        <v>114226402.043796</v>
       </c>
       <c r="D70" s="3">
-        <v>104819.511472225</v>
+        <v>45263.233858957799</v>
       </c>
       <c r="E70" t="s">
         <v>0</v>
@@ -14290,13 +14290,13 @@
         <v>8</v>
       </c>
       <c r="B71" s="3">
-        <v>114159021.26865</v>
+        <v>114181596.15292899</v>
       </c>
       <c r="C71" s="3">
-        <v>114264150.35196801</v>
+        <v>114274014.45997301</v>
       </c>
       <c r="D71" s="3">
-        <v>105129.08331829299</v>
+        <v>92418.307044431596</v>
       </c>
       <c r="E71" t="s">
         <v>0</v>
@@ -14307,13 +14307,13 @@
         <v>8</v>
       </c>
       <c r="B72" s="3">
-        <v>114462733.062001</v>
+        <v>114183188.353743</v>
       </c>
       <c r="C72" s="3">
-        <v>114569421.16675</v>
+        <v>114266075.165868</v>
       </c>
       <c r="D72" s="3">
-        <v>106688.104748756</v>
+        <v>82886.812124401302</v>
       </c>
       <c r="E72" t="s">
         <v>0</v>
@@ -14324,13 +14324,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="3">
-        <v>113922572.89373399</v>
+        <v>114183803.29881001</v>
       </c>
       <c r="C73" s="3">
-        <v>114032993.98641001</v>
+        <v>114276275.47115099</v>
       </c>
       <c r="D73" s="3">
-        <v>110421.092676029</v>
+        <v>92472.1723408252</v>
       </c>
       <c r="E73" t="s">
         <v>0</v>
@@ -14341,13 +14341,13 @@
         <v>8</v>
       </c>
       <c r="B74" s="3">
-        <v>114465668.61825</v>
+        <v>114186874.951976</v>
       </c>
       <c r="C74" s="3">
-        <v>114579001.20187999</v>
+        <v>114223781.691696</v>
       </c>
       <c r="D74" s="3">
-        <v>113332.58363042799</v>
+        <v>36906.739720135898</v>
       </c>
       <c r="E74" t="s">
         <v>0</v>
@@ -14358,16 +14358,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="3">
-        <v>114081785.806806</v>
+        <v>114195641.58016901</v>
       </c>
       <c r="C75" s="3">
-        <v>114197034.90949</v>
+        <v>114338190.5572</v>
       </c>
       <c r="D75" s="3">
-        <v>115249.102683991</v>
+        <v>142548.977031335</v>
       </c>
       <c r="E75" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -14375,16 +14375,16 @@
         <v>8</v>
       </c>
       <c r="B76" s="3">
-        <v>113893717.68455499</v>
+        <v>114197258.05108801</v>
       </c>
       <c r="C76" s="3">
-        <v>114009877.479408</v>
+        <v>114293883.278744</v>
       </c>
       <c r="D76" s="3">
-        <v>116159.79485300199</v>
+        <v>96625.2276556492</v>
       </c>
       <c r="E76" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -14392,16 +14392,16 @@
         <v>8</v>
       </c>
       <c r="B77" s="3">
-        <v>114021822.262493</v>
+        <v>114202148.938077</v>
       </c>
       <c r="C77" s="3">
-        <v>114139422.4932</v>
+        <v>114381228.007376</v>
       </c>
       <c r="D77" s="3">
-        <v>117600.23070699</v>
+        <v>179079.06929866999</v>
       </c>
       <c r="E77" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -14409,16 +14409,16 @@
         <v>8</v>
       </c>
       <c r="B78" s="3">
-        <v>113916433.683621</v>
+        <v>114202202.49615701</v>
       </c>
       <c r="C78" s="3">
-        <v>114034147.58444101</v>
+        <v>114512491.180756</v>
       </c>
       <c r="D78" s="3">
-        <v>117713.900819167</v>
+        <v>310288.68459877401</v>
       </c>
       <c r="E78" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -14426,13 +14426,13 @@
         <v>8</v>
       </c>
       <c r="B79" s="3">
-        <v>113917493.683019</v>
+        <v>114205946.44147301</v>
       </c>
       <c r="C79" s="3">
-        <v>114037485.184707</v>
+        <v>114308264.49363901</v>
       </c>
       <c r="D79" s="3">
-        <v>119991.50168851</v>
+        <v>102318.052165717</v>
       </c>
       <c r="E79" t="s">
         <v>0</v>
@@ -14443,16 +14443,16 @@
         <v>8</v>
       </c>
       <c r="B80" s="3">
-        <v>114417246.58413801</v>
+        <v>114211617.35120501</v>
       </c>
       <c r="C80" s="3">
-        <v>114538085.081771</v>
+        <v>114379103.912361</v>
       </c>
       <c r="D80" s="3">
-        <v>120838.49763253301</v>
+        <v>167486.561155453</v>
       </c>
       <c r="E80" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -14460,16 +14460,16 @@
         <v>8</v>
       </c>
       <c r="B81" s="3">
-        <v>114598618.51272701</v>
+        <v>114223781.691696</v>
       </c>
       <c r="C81" s="3">
-        <v>114723297.21685199</v>
+        <v>114232035.780329</v>
       </c>
       <c r="D81" s="3">
-        <v>124678.704125077</v>
+        <v>8254.0886323601007</v>
       </c>
       <c r="E81" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -14477,13 +14477,13 @@
         <v>8</v>
       </c>
       <c r="B82" s="3">
-        <v>114350952.638633</v>
+        <v>114227107.412925</v>
       </c>
       <c r="C82" s="3">
-        <v>114477385.8563</v>
+        <v>114242645.19561</v>
       </c>
       <c r="D82" s="3">
-        <v>126433.217667401</v>
+        <v>15537.7826854288</v>
       </c>
       <c r="E82" t="s">
         <v>0</v>
@@ -14494,16 +14494,16 @@
         <v>8</v>
       </c>
       <c r="B83" s="3">
-        <v>114138191.57901201</v>
+        <v>114227284.36963999</v>
       </c>
       <c r="C83" s="3">
-        <v>114265584.02905899</v>
+        <v>114260351.107678</v>
       </c>
       <c r="D83" s="3">
-        <v>127392.45004651</v>
+        <v>33066.738038599397</v>
       </c>
       <c r="E83" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -14511,16 +14511,16 @@
         <v>8</v>
       </c>
       <c r="B84" s="3">
-        <v>114526024.17084099</v>
+        <v>114227489.18065301</v>
       </c>
       <c r="C84" s="3">
-        <v>114654910.922038</v>
+        <v>114406734.761305</v>
       </c>
       <c r="D84" s="3">
-        <v>128886.75119686101</v>
+        <v>179245.580652192</v>
       </c>
       <c r="E84" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -14528,16 +14528,16 @@
         <v>8</v>
       </c>
       <c r="B85" s="3">
-        <v>114566451.40706301</v>
+        <v>114228812.25979599</v>
       </c>
       <c r="C85" s="3">
-        <v>114701933.89212</v>
+        <v>114306703.321693</v>
       </c>
       <c r="D85" s="3">
-        <v>135482.48505750301</v>
+        <v>77891.061896845698</v>
       </c>
       <c r="E85" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -14545,16 +14545,16 @@
         <v>8</v>
       </c>
       <c r="B86" s="3">
-        <v>114526462.056787</v>
+        <v>114228942.5196</v>
       </c>
       <c r="C86" s="3">
-        <v>114661995.744597</v>
+        <v>114246024.577323</v>
       </c>
       <c r="D86" s="3">
-        <v>135533.68781071901</v>
+        <v>17082.057722955898</v>
       </c>
       <c r="E86" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -14562,16 +14562,16 @@
         <v>8</v>
       </c>
       <c r="B87" s="3">
-        <v>113979257.618541</v>
+        <v>114229201.298315</v>
       </c>
       <c r="C87" s="3">
-        <v>114118730.846185</v>
+        <v>114369599.964522</v>
       </c>
       <c r="D87" s="3">
-        <v>139473.22764456301</v>
+        <v>140398.66620650899</v>
       </c>
       <c r="E87" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -14579,16 +14579,16 @@
         <v>8</v>
       </c>
       <c r="B88" s="3">
-        <v>113991641.311627</v>
+        <v>114240168.825653</v>
       </c>
       <c r="C88" s="3">
-        <v>114132657.687848</v>
+        <v>114314103.245996</v>
       </c>
       <c r="D88" s="3">
-        <v>141016.37622152301</v>
+        <v>73934.420343413905</v>
       </c>
       <c r="E88" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -14596,16 +14596,16 @@
         <v>8</v>
       </c>
       <c r="B89" s="3">
-        <v>114011118.94136301</v>
+        <v>114242645.19561</v>
       </c>
       <c r="C89" s="3">
-        <v>114154567.345957</v>
+        <v>114300941.783088</v>
       </c>
       <c r="D89" s="3">
-        <v>143448.40459464499</v>
+        <v>58296.587478190602</v>
       </c>
       <c r="E89" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -14613,16 +14613,16 @@
         <v>8</v>
       </c>
       <c r="B90" s="3">
-        <v>113935633.999246</v>
+        <v>114247745.809076</v>
       </c>
       <c r="C90" s="3">
-        <v>114081442.85076401</v>
+        <v>114465524.32889099</v>
       </c>
       <c r="D90" s="3">
-        <v>145808.85151874999</v>
+        <v>217778.51981505801</v>
       </c>
       <c r="E90" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -14630,16 +14630,16 @@
         <v>8</v>
       </c>
       <c r="B91" s="3">
-        <v>114095693.293828</v>
+        <v>114248154.202236</v>
       </c>
       <c r="C91" s="3">
-        <v>114242235.57358401</v>
+        <v>114531469.481242</v>
       </c>
       <c r="D91" s="3">
-        <v>146542.27975606901</v>
+        <v>283315.279006064</v>
       </c>
       <c r="E91" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -14647,16 +14647,16 @@
         <v>8</v>
       </c>
       <c r="B92" s="3">
-        <v>114039918.851569</v>
+        <v>114252107.771624</v>
       </c>
       <c r="C92" s="3">
-        <v>114187937.409106</v>
+        <v>114663496.394889</v>
       </c>
       <c r="D92" s="3">
-        <v>148018.557537302</v>
+        <v>411388.62326505798</v>
       </c>
       <c r="E92" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -14664,16 +14664,16 @@
         <v>8</v>
       </c>
       <c r="B93" s="3">
-        <v>113891621.64864799</v>
+        <v>114253602.584802</v>
       </c>
       <c r="C93" s="3">
-        <v>114040594.5231</v>
+        <v>114398711.18746801</v>
       </c>
       <c r="D93" s="3">
-        <v>148972.87445208401</v>
+        <v>145108.60266548401</v>
       </c>
       <c r="E93" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -14681,16 +14681,16 @@
         <v>8</v>
       </c>
       <c r="B94" s="3">
-        <v>114110703.073722</v>
+        <v>114255451.00419401</v>
       </c>
       <c r="C94" s="3">
-        <v>114262170.648717</v>
+        <v>114330525.914663</v>
       </c>
       <c r="D94" s="3">
-        <v>151467.574995145</v>
+        <v>75074.910468950897</v>
       </c>
       <c r="E94" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -14698,16 +14698,16 @@
         <v>8</v>
       </c>
       <c r="B95" s="3">
-        <v>114068177.241457</v>
+        <v>114262170.648717</v>
       </c>
       <c r="C95" s="3">
-        <v>114228942.5196</v>
+        <v>114425312.45145001</v>
       </c>
       <c r="D95" s="3">
-        <v>160765.27814392699</v>
+        <v>163141.80273254201</v>
       </c>
       <c r="E95" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -14715,16 +14715,16 @@
         <v>8</v>
       </c>
       <c r="B96" s="3">
-        <v>113952864.03292599</v>
+        <v>114262287.186184</v>
       </c>
       <c r="C96" s="3">
-        <v>114124141.133903</v>
+        <v>114297007.46593501</v>
       </c>
       <c r="D96" s="3">
-        <v>171277.100977391</v>
+        <v>34720.279751539201</v>
       </c>
       <c r="E96" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -14732,16 +14732,16 @@
         <v>8</v>
       </c>
       <c r="B97" s="3">
-        <v>114442109.41224299</v>
+        <v>114264150.35196801</v>
       </c>
       <c r="C97" s="3">
-        <v>114616905.57604399</v>
+        <v>114319905.029965</v>
       </c>
       <c r="D97" s="3">
-        <v>174796.16380166999</v>
+        <v>55754.677996635401</v>
       </c>
       <c r="E97" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -14749,16 +14749,16 @@
         <v>8</v>
       </c>
       <c r="B98" s="3">
-        <v>113925870.14623199</v>
+        <v>114271400.45701499</v>
       </c>
       <c r="C98" s="3">
-        <v>114118057.01795299</v>
+        <v>114566734.04626</v>
       </c>
       <c r="D98" s="3">
-        <v>192186.87172110399</v>
+        <v>295333.58924517001</v>
       </c>
       <c r="E98" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -14766,16 +14766,16 @@
         <v>8</v>
       </c>
       <c r="B99" s="3">
-        <v>114071209.26369201</v>
+        <v>114273264.442044</v>
       </c>
       <c r="C99" s="3">
-        <v>114271400.45701499</v>
+        <v>114425096.78545301</v>
       </c>
       <c r="D99" s="3">
-        <v>200191.19332319501</v>
+        <v>151832.34340918099</v>
       </c>
       <c r="E99" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -14783,16 +14783,16 @@
         <v>8</v>
       </c>
       <c r="B100" s="3">
-        <v>113915617.716546</v>
+        <v>114274186.091602</v>
       </c>
       <c r="C100" s="3">
-        <v>114121471.01272701</v>
+        <v>114566451.40706301</v>
       </c>
       <c r="D100" s="3">
-        <v>205853.296181321</v>
+        <v>292265.31546036899</v>
       </c>
       <c r="E100" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -14800,16 +14800,16 @@
         <v>8</v>
       </c>
       <c r="B101" s="3">
-        <v>113935725.549768</v>
+        <v>114280125.61097699</v>
       </c>
       <c r="C101" s="3">
-        <v>114148870.63003799</v>
+        <v>114404343.49032301</v>
       </c>
       <c r="D101" s="3">
-        <v>213145.080269411</v>
+        <v>124217.879345983</v>
       </c>
       <c r="E101" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -14817,16 +14817,16 @@
         <v>8</v>
       </c>
       <c r="B102" s="3">
-        <v>113937229.681848</v>
+        <v>114284510.819575</v>
       </c>
       <c r="C102" s="3">
-        <v>114151134.610975</v>
+        <v>114312672.333854</v>
       </c>
       <c r="D102" s="3">
-        <v>213904.92912737999</v>
+        <v>28161.514278769399</v>
       </c>
       <c r="E102" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -14834,16 +14834,16 @@
         <v>8</v>
       </c>
       <c r="B103" s="3">
-        <v>113884638.00256599</v>
+        <v>114286073.73241501</v>
       </c>
       <c r="C103" s="3">
-        <v>114106371.218393</v>
+        <v>114306051.40823901</v>
       </c>
       <c r="D103" s="3">
-        <v>221733.21582694401</v>
+        <v>19977.675823867299</v>
       </c>
       <c r="E103" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -14851,13 +14851,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="3">
-        <v>114022027.790345</v>
+        <v>114306051.40823901</v>
       </c>
       <c r="C104" s="3">
-        <v>114268542.216924</v>
+        <v>114323069.76973701</v>
       </c>
       <c r="D104" s="3">
-        <v>246514.42657961001</v>
+        <v>17018.361497923699</v>
       </c>
       <c r="E104" t="s">
         <v>0</v>
@@ -14868,13 +14868,13 @@
         <v>8</v>
       </c>
       <c r="B105" s="3">
-        <v>114563950.869406</v>
+        <v>114306703.321693</v>
       </c>
       <c r="C105" s="3">
-        <v>114834790.392775</v>
+        <v>114404503.754941</v>
       </c>
       <c r="D105" s="3">
-        <v>270839.523369551</v>
+        <v>97800.433247864203</v>
       </c>
       <c r="E105" t="s">
         <v>0</v>
@@ -14885,16 +14885,16 @@
         <v>8</v>
       </c>
       <c r="B106" s="3">
-        <v>114317731.06346799</v>
+        <v>114308264.49363901</v>
       </c>
       <c r="C106" s="3">
-        <v>114592001.37611499</v>
+        <v>114428384.002211</v>
       </c>
       <c r="D106" s="3">
-        <v>274270.31264725298</v>
+        <v>120119.50857161</v>
       </c>
       <c r="E106" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -14902,16 +14902,16 @@
         <v>8</v>
       </c>
       <c r="B107" s="3">
-        <v>113962441.40551201</v>
+        <v>114314757.10515501</v>
       </c>
       <c r="C107" s="3">
-        <v>114255451.00419401</v>
+        <v>114462733.062001</v>
       </c>
       <c r="D107" s="3">
-        <v>293009.59868138999</v>
+        <v>147975.95684661</v>
       </c>
       <c r="E107" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -14919,13 +14919,13 @@
         <v>8</v>
       </c>
       <c r="B108" s="3">
-        <v>113884638.00256599</v>
+        <v>114317731.06346799</v>
       </c>
       <c r="C108" s="3">
-        <v>114197258.05108801</v>
+        <v>114592001.37611499</v>
       </c>
       <c r="D108" s="3">
-        <v>312620.04852213</v>
+        <v>274270.31264725298</v>
       </c>
       <c r="E108" t="s">
         <v>0</v>
@@ -14936,16 +14936,16 @@
         <v>8</v>
       </c>
       <c r="B109" s="3">
-        <v>114528118.670665</v>
+        <v>114328909.238932</v>
       </c>
       <c r="C109" s="3">
-        <v>114846669.124309</v>
+        <v>114434947.78555299</v>
       </c>
       <c r="D109" s="3">
-        <v>318550.453644127</v>
+        <v>106038.546621218</v>
       </c>
       <c r="E109" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -14953,13 +14953,13 @@
         <v>8</v>
       </c>
       <c r="B110" s="3">
-        <v>113937729.420719</v>
+        <v>114338190.5572</v>
       </c>
       <c r="C110" s="3">
-        <v>114262287.186184</v>
+        <v>114394615.47923601</v>
       </c>
       <c r="D110" s="3">
-        <v>324557.76546455902</v>
+        <v>56424.922036483797</v>
       </c>
       <c r="E110" t="s">
         <v>0</v>
@@ -14970,13 +14970,13 @@
         <v>8</v>
       </c>
       <c r="B111" s="3">
-        <v>113884638.00256599</v>
+        <v>114350952.638633</v>
       </c>
       <c r="C111" s="3">
-        <v>114220891.501087</v>
+        <v>114477385.8563</v>
       </c>
       <c r="D111" s="3">
-        <v>336253.49852140201</v>
+        <v>126433.217667401</v>
       </c>
       <c r="E111" t="s">
         <v>0</v>
@@ -14987,16 +14987,16 @@
         <v>8</v>
       </c>
       <c r="B112" s="3">
-        <v>114020886.788192</v>
+        <v>114354051.531664</v>
       </c>
       <c r="C112" s="3">
-        <v>114390966.56623</v>
+        <v>114508638.071169</v>
       </c>
       <c r="D112" s="3">
-        <v>370079.778038383</v>
+        <v>154586.539505661</v>
       </c>
       <c r="E112" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -15004,16 +15004,16 @@
         <v>8</v>
       </c>
       <c r="B113" s="3">
-        <v>113911927.841337</v>
+        <v>114359057.11282</v>
       </c>
       <c r="C113" s="3">
-        <v>114315455.510709</v>
+        <v>114541350.486156</v>
       </c>
       <c r="D113" s="3">
-        <v>403527.66937203699</v>
+        <v>182293.373335704</v>
       </c>
       <c r="E113" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -15021,16 +15021,16 @@
         <v>8</v>
       </c>
       <c r="B114" s="3">
-        <v>113884638.00256599</v>
+        <v>114376284.381551</v>
       </c>
       <c r="C114" s="3">
-        <v>114395323.81812499</v>
+        <v>114413150.36387999</v>
       </c>
       <c r="D114" s="3">
-        <v>510685.81555856799</v>
+        <v>36865.982328578801</v>
       </c>
       <c r="E114" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -15038,13 +15038,13 @@
         <v>8</v>
       </c>
       <c r="B115" s="3">
-        <v>114951598.51689</v>
+        <v>114385615.980922</v>
       </c>
       <c r="C115" s="3">
-        <v>114952650.838755</v>
+        <v>114457856.716594</v>
       </c>
       <c r="D115" s="3">
-        <v>1052.3218651115801</v>
+        <v>72240.735671952396</v>
       </c>
       <c r="E115" t="s">
         <v>1</v>
@@ -15055,16 +15055,16 @@
         <v>8</v>
       </c>
       <c r="B116" s="3">
-        <v>114569421.16675</v>
+        <v>114387534.03605901</v>
       </c>
       <c r="C116" s="3">
-        <v>114576384.74119</v>
+        <v>114464421.933614</v>
       </c>
       <c r="D116" s="3">
-        <v>6963.5744398385204</v>
+        <v>76887.897555470496</v>
       </c>
       <c r="E116" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -15072,13 +15072,13 @@
         <v>8</v>
       </c>
       <c r="B117" s="3">
-        <v>114726848.3326</v>
+        <v>114395007.180299</v>
       </c>
       <c r="C117" s="3">
-        <v>114734119.123559</v>
+        <v>114566109.37267099</v>
       </c>
       <c r="D117" s="3">
-        <v>7270.7909592389997</v>
+        <v>171102.19237233701</v>
       </c>
       <c r="E117" t="s">
         <v>1</v>
@@ -15089,16 +15089,16 @@
         <v>8</v>
       </c>
       <c r="B118" s="3">
-        <v>113884638.00256599</v>
+        <v>114397026.616886</v>
       </c>
       <c r="C118" s="3">
-        <v>113892116.472056</v>
+        <v>114462259.026912</v>
       </c>
       <c r="D118" s="3">
-        <v>7478.4694894701197</v>
+        <v>65232.410025775403</v>
       </c>
       <c r="E118" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -15106,13 +15106,13 @@
         <v>8</v>
       </c>
       <c r="B119" s="3">
-        <v>114223781.691696</v>
+        <v>114402168.60217699</v>
       </c>
       <c r="C119" s="3">
-        <v>114232035.780329</v>
+        <v>114671763.28421</v>
       </c>
       <c r="D119" s="3">
-        <v>8254.0886323601007</v>
+        <v>269594.68203291303</v>
       </c>
       <c r="E119" t="s">
         <v>1</v>
@@ -15123,16 +15123,16 @@
         <v>8</v>
       </c>
       <c r="B120" s="3">
-        <v>113884638.00256599</v>
+        <v>114407042.285041</v>
       </c>
       <c r="C120" s="3">
-        <v>113893559.570453</v>
+        <v>114422505.516518</v>
       </c>
       <c r="D120" s="3">
-        <v>8921.5678866058497</v>
+        <v>15463.231476709199</v>
       </c>
       <c r="E120" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -15140,13 +15140,13 @@
         <v>8</v>
       </c>
       <c r="B121" s="3">
-        <v>114431868.861596</v>
+        <v>114407189.134537</v>
       </c>
       <c r="C121" s="3">
-        <v>114442109.41224299</v>
+        <v>114553998.283043</v>
       </c>
       <c r="D121" s="3">
-        <v>10240.5506468117</v>
+        <v>146809.148505911</v>
       </c>
       <c r="E121" t="s">
         <v>1</v>
@@ -15157,16 +15157,16 @@
         <v>8</v>
       </c>
       <c r="B122" s="3">
-        <v>114494811.17728101</v>
+        <v>114410637.537562</v>
       </c>
       <c r="C122" s="3">
-        <v>114509250.35369299</v>
+        <v>114427236.241294</v>
       </c>
       <c r="D122" s="3">
-        <v>14439.176412016101</v>
+        <v>16598.703732416001</v>
       </c>
       <c r="E122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -15174,13 +15174,13 @@
         <v>8</v>
       </c>
       <c r="B123" s="3">
-        <v>114937658.05529401</v>
+        <v>114410953.76576599</v>
       </c>
       <c r="C123" s="3">
-        <v>114952650.838755</v>
+        <v>114572931.115484</v>
       </c>
       <c r="D123" s="3">
-        <v>14992.783460631899</v>
+        <v>161977.34971848101</v>
       </c>
       <c r="E123" t="s">
         <v>1</v>
@@ -15191,16 +15191,16 @@
         <v>8</v>
       </c>
       <c r="B124" s="3">
-        <v>114228942.5196</v>
+        <v>114411804.243497</v>
       </c>
       <c r="C124" s="3">
-        <v>114246024.577323</v>
+        <v>114494811.17728101</v>
       </c>
       <c r="D124" s="3">
-        <v>17082.057722955898</v>
+        <v>83006.933783471599</v>
       </c>
       <c r="E124" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -15208,16 +15208,16 @@
         <v>8</v>
       </c>
       <c r="B125" s="3">
-        <v>113897823.735742</v>
+        <v>114414278.46293899</v>
       </c>
       <c r="C125" s="3">
-        <v>113915617.716546</v>
+        <v>114443976.059815</v>
       </c>
       <c r="D125" s="3">
-        <v>17793.980803921801</v>
+        <v>29697.596875801599</v>
       </c>
       <c r="E125" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -15225,16 +15225,16 @@
         <v>8</v>
       </c>
       <c r="B126" s="3">
-        <v>114551070.91923501</v>
+        <v>114417180.22537</v>
       </c>
       <c r="C126" s="3">
-        <v>114569858.131046</v>
+        <v>114455172.66827001</v>
       </c>
       <c r="D126" s="3">
-        <v>18787.211811169898</v>
+        <v>37992.442899718801</v>
       </c>
       <c r="E126" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -15242,16 +15242,16 @@
         <v>8</v>
       </c>
       <c r="B127" s="3">
-        <v>114723297.21685199</v>
+        <v>114417246.58413801</v>
       </c>
       <c r="C127" s="3">
-        <v>114743203.31122699</v>
+        <v>114538085.081771</v>
       </c>
       <c r="D127" s="3">
-        <v>19906.0943748354</v>
+        <v>120838.49763253301</v>
       </c>
       <c r="E127" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -15259,16 +15259,16 @@
         <v>8</v>
       </c>
       <c r="B128" s="3">
-        <v>114286073.73241501</v>
+        <v>114417917.749828</v>
       </c>
       <c r="C128" s="3">
-        <v>114306051.40823901</v>
+        <v>114505268.008357</v>
       </c>
       <c r="D128" s="3">
-        <v>19977.675823867299</v>
+        <v>87350.258529320403</v>
       </c>
       <c r="E128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -15276,13 +15276,13 @@
         <v>8</v>
       </c>
       <c r="B129" s="3">
-        <v>114554078.159338</v>
+        <v>114422505.516518</v>
       </c>
       <c r="C129" s="3">
-        <v>114574622.956857</v>
+        <v>114448779.49250101</v>
       </c>
       <c r="D129" s="3">
-        <v>20544.797518670501</v>
+        <v>26273.9759835451</v>
       </c>
       <c r="E129" t="s">
         <v>1</v>
@@ -15293,13 +15293,13 @@
         <v>8</v>
       </c>
       <c r="B130" s="3">
-        <v>114567297.686168</v>
+        <v>114424158.955825</v>
       </c>
       <c r="C130" s="3">
-        <v>114587881.192968</v>
+        <v>114698335.465028</v>
       </c>
       <c r="D130" s="3">
-        <v>20583.506800115101</v>
+        <v>274176.50920331501</v>
       </c>
       <c r="E130" t="s">
         <v>1</v>
@@ -15310,13 +15310,13 @@
         <v>8</v>
       </c>
       <c r="B131" s="3">
-        <v>113970445.215087</v>
+        <v>114425912.650123</v>
       </c>
       <c r="C131" s="3">
-        <v>113991641.311627</v>
+        <v>114521423.70586801</v>
       </c>
       <c r="D131" s="3">
-        <v>21196.096539810202</v>
+        <v>95511.055745273799</v>
       </c>
       <c r="E131" t="s">
         <v>1</v>
@@ -15327,13 +15327,13 @@
         <v>8</v>
       </c>
       <c r="B132" s="3">
-        <v>113884638.00256599</v>
+        <v>114427236.241294</v>
       </c>
       <c r="C132" s="3">
-        <v>113906397.739177</v>
+        <v>114605626.633562</v>
       </c>
       <c r="D132" s="3">
-        <v>21759.736610516899</v>
+        <v>178390.39226768899</v>
       </c>
       <c r="E132" t="s">
         <v>1</v>
@@ -15344,13 +15344,13 @@
         <v>8</v>
       </c>
       <c r="B133" s="3">
-        <v>114480685.77134</v>
+        <v>114431868.861596</v>
       </c>
       <c r="C133" s="3">
-        <v>114504751.06535999</v>
+        <v>114442109.41224299</v>
       </c>
       <c r="D133" s="3">
-        <v>24065.294020041802</v>
+        <v>10240.5506468117</v>
       </c>
       <c r="E133" t="s">
         <v>1</v>
@@ -15361,13 +15361,13 @@
         <v>8</v>
       </c>
       <c r="B134" s="3">
-        <v>114464421.933614</v>
+        <v>114433290.45483699</v>
       </c>
       <c r="C134" s="3">
-        <v>114488775.80635101</v>
+        <v>114609732.787155</v>
       </c>
       <c r="D134" s="3">
-        <v>24353.8727372586</v>
+        <v>176442.332318142</v>
       </c>
       <c r="E134" t="s">
         <v>1</v>
@@ -15378,16 +15378,16 @@
         <v>8</v>
       </c>
       <c r="B135" s="3">
-        <v>114422505.516518</v>
+        <v>114434947.78555299</v>
       </c>
       <c r="C135" s="3">
-        <v>114448779.49250101</v>
+        <v>114463577.60021301</v>
       </c>
       <c r="D135" s="3">
-        <v>26273.9759835451</v>
+        <v>28629.814659833901</v>
       </c>
       <c r="E135" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -15395,16 +15395,16 @@
         <v>8</v>
       </c>
       <c r="B136" s="3">
-        <v>114284510.819575</v>
+        <v>114438408.886861</v>
       </c>
       <c r="C136" s="3">
-        <v>114312672.333854</v>
+        <v>114482330.40377399</v>
       </c>
       <c r="D136" s="3">
-        <v>28161.514278769399</v>
+        <v>43921.516913220199</v>
       </c>
       <c r="E136" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -15412,16 +15412,16 @@
         <v>8</v>
       </c>
       <c r="B137" s="3">
-        <v>113884638.00256599</v>
+        <v>114442109.41224299</v>
       </c>
       <c r="C137" s="3">
-        <v>113916201.735149</v>
+        <v>114616905.57604399</v>
       </c>
       <c r="D137" s="3">
-        <v>31563.732583254499</v>
+        <v>174796.16380166999</v>
       </c>
       <c r="E137" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -15429,16 +15429,16 @@
         <v>8</v>
       </c>
       <c r="B138" s="3">
-        <v>113973620.19541</v>
+        <v>114442289.645934</v>
       </c>
       <c r="C138" s="3">
-        <v>114005266.364262</v>
+        <v>114483616.207313</v>
       </c>
       <c r="D138" s="3">
-        <v>31646.168852865601</v>
+        <v>41326.561379313403</v>
       </c>
       <c r="E138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -15446,13 +15446,13 @@
         <v>8</v>
       </c>
       <c r="B139" s="3">
-        <v>114227284.36963999</v>
+        <v>114443976.059815</v>
       </c>
       <c r="C139" s="3">
-        <v>114260351.107678</v>
+        <v>114522766.446869</v>
       </c>
       <c r="D139" s="3">
-        <v>33066.738038599397</v>
+        <v>78790.387054622202</v>
       </c>
       <c r="E139" t="s">
         <v>1</v>
@@ -15463,16 +15463,16 @@
         <v>8</v>
       </c>
       <c r="B140" s="3">
-        <v>114262287.186184</v>
+        <v>114448779.49250101</v>
       </c>
       <c r="C140" s="3">
-        <v>114297007.46593501</v>
+        <v>114480685.77134</v>
       </c>
       <c r="D140" s="3">
-        <v>34720.279751539201</v>
+        <v>31906.278839290098</v>
       </c>
       <c r="E140" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -15480,13 +15480,13 @@
         <v>8</v>
       </c>
       <c r="B141" s="3">
-        <v>114917804.699755</v>
+        <v>114455172.66827001</v>
       </c>
       <c r="C141" s="3">
-        <v>114952650.838755</v>
+        <v>114510676.452776</v>
       </c>
       <c r="D141" s="3">
-        <v>34846.138999640898</v>
+        <v>55503.784505799398</v>
       </c>
       <c r="E141" t="s">
         <v>1</v>
@@ -15497,16 +15497,16 @@
         <v>8</v>
       </c>
       <c r="B142" s="3">
-        <v>114376284.381551</v>
+        <v>114457856.716594</v>
       </c>
       <c r="C142" s="3">
-        <v>114413150.36387999</v>
+        <v>114558873.399584</v>
       </c>
       <c r="D142" s="3">
-        <v>36865.982328578801</v>
+        <v>101016.682989523</v>
       </c>
       <c r="E142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -15514,13 +15514,13 @@
         <v>8</v>
       </c>
       <c r="B143" s="3">
-        <v>114524515.328109</v>
+        <v>114462259.026912</v>
       </c>
       <c r="C143" s="3">
-        <v>114562347.09676901</v>
+        <v>114530051.574599</v>
       </c>
       <c r="D143" s="3">
-        <v>37831.768660068497</v>
+        <v>67792.547687500701</v>
       </c>
       <c r="E143" t="s">
         <v>1</v>
@@ -15531,16 +15531,16 @@
         <v>8</v>
       </c>
       <c r="B144" s="3">
-        <v>113884638.00256599</v>
+        <v>114462733.062001</v>
       </c>
       <c r="C144" s="3">
-        <v>113922572.89373399</v>
+        <v>114569421.16675</v>
       </c>
       <c r="D144" s="3">
-        <v>37934.891168177099</v>
+        <v>106688.104748756</v>
       </c>
       <c r="E144" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -15548,13 +15548,13 @@
         <v>8</v>
       </c>
       <c r="B145" s="3">
-        <v>114913898.748927</v>
+        <v>114464421.933614</v>
       </c>
       <c r="C145" s="3">
-        <v>114952650.838755</v>
+        <v>114488775.80635101</v>
       </c>
       <c r="D145" s="3">
-        <v>38752.0898273438</v>
+        <v>24353.8727372586</v>
       </c>
       <c r="E145" t="s">
         <v>1</v>
@@ -15565,16 +15565,16 @@
         <v>8</v>
       </c>
       <c r="B146" s="3">
-        <v>114141917.50096001</v>
+        <v>114465668.61825</v>
       </c>
       <c r="C146" s="3">
-        <v>114181138.809937</v>
+        <v>114579001.20187999</v>
       </c>
       <c r="D146" s="3">
-        <v>39221.308977335597</v>
+        <v>113332.58363042799</v>
       </c>
       <c r="E146" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -15582,13 +15582,13 @@
         <v>8</v>
       </c>
       <c r="B147" s="3">
-        <v>114611891.39282601</v>
+        <v>114477334.653547</v>
       </c>
       <c r="C147" s="3">
-        <v>114652381.19881199</v>
+        <v>114567349.093732</v>
       </c>
       <c r="D147" s="3">
-        <v>40489.805985957297</v>
+        <v>90014.440185591593</v>
       </c>
       <c r="E147" t="s">
         <v>1</v>
@@ -15599,13 +15599,13 @@
         <v>8</v>
       </c>
       <c r="B148" s="3">
-        <v>114483616.207313</v>
+        <v>114480685.77134</v>
       </c>
       <c r="C148" s="3">
-        <v>114525864.41825099</v>
+        <v>114504751.06535999</v>
       </c>
       <c r="D148" s="3">
-        <v>42248.210937529802</v>
+        <v>24065.294020041802</v>
       </c>
       <c r="E148" t="s">
         <v>1</v>
@@ -15616,13 +15616,13 @@
         <v>8</v>
       </c>
       <c r="B149" s="3">
-        <v>114513291.274978</v>
+        <v>114483616.207313</v>
       </c>
       <c r="C149" s="3">
-        <v>114556105.583555</v>
+        <v>114525864.41825099</v>
       </c>
       <c r="D149" s="3">
-        <v>42814.308577284202</v>
+        <v>42248.210937529802</v>
       </c>
       <c r="E149" t="s">
         <v>1</v>
@@ -15633,13 +15633,13 @@
         <v>8</v>
       </c>
       <c r="B150" s="3">
-        <v>113901606.59515101</v>
+        <v>114484498.737968</v>
       </c>
       <c r="C150" s="3">
-        <v>113946327.079826</v>
+        <v>114658554.30514701</v>
       </c>
       <c r="D150" s="3">
-        <v>44720.484674677202</v>
+        <v>174055.567178875</v>
       </c>
       <c r="E150" t="s">
         <v>1</v>
@@ -15650,13 +15650,13 @@
         <v>8</v>
       </c>
       <c r="B151" s="3">
-        <v>113884638.00256599</v>
+        <v>114488623.222147</v>
       </c>
       <c r="C151" s="3">
-        <v>113931029.847675</v>
+        <v>114568704.328205</v>
       </c>
       <c r="D151" s="3">
-        <v>46391.845108851703</v>
+        <v>80081.106058180303</v>
       </c>
       <c r="E151" t="s">
         <v>1</v>
@@ -15667,16 +15667,16 @@
         <v>8</v>
       </c>
       <c r="B152" s="3">
-        <v>113884638.00256599</v>
+        <v>114488775.80635101</v>
       </c>
       <c r="C152" s="3">
-        <v>113931597.891019</v>
+        <v>114501883.711179</v>
       </c>
       <c r="D152" s="3">
-        <v>46959.888453230204</v>
+        <v>13107.9048279374</v>
       </c>
       <c r="E152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -15684,13 +15684,13 @@
         <v>8</v>
       </c>
       <c r="B153" s="3">
-        <v>114899051.99860001</v>
+        <v>114491490.781139</v>
       </c>
       <c r="C153" s="3">
-        <v>114946434.92403699</v>
+        <v>114631382.028061</v>
       </c>
       <c r="D153" s="3">
-        <v>47382.925437361002</v>
+        <v>139891.24692194199</v>
       </c>
       <c r="E153" t="s">
         <v>1</v>
@@ -15701,13 +15701,13 @@
         <v>8</v>
       </c>
       <c r="B154" s="3">
-        <v>114518428.344804</v>
+        <v>114494811.17728101</v>
       </c>
       <c r="C154" s="3">
-        <v>114565833.082615</v>
+        <v>114509250.35369299</v>
       </c>
       <c r="D154" s="3">
-        <v>47404.7378102242</v>
+        <v>14439.176412016101</v>
       </c>
       <c r="E154" t="s">
         <v>1</v>
@@ -15718,16 +15718,16 @@
         <v>8</v>
       </c>
       <c r="B155" s="3">
-        <v>114903315.44705001</v>
+        <v>114500151.31722599</v>
       </c>
       <c r="C155" s="3">
-        <v>114952650.838755</v>
+        <v>114604970.82869899</v>
       </c>
       <c r="D155" s="3">
-        <v>49335.3917043209</v>
+        <v>104819.511472225</v>
       </c>
       <c r="E155" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -15735,16 +15735,16 @@
         <v>8</v>
       </c>
       <c r="B156" s="3">
-        <v>113884638.00256599</v>
+        <v>114504751.06535999</v>
       </c>
       <c r="C156" s="3">
-        <v>113935725.549768</v>
+        <v>114524515.328109</v>
       </c>
       <c r="D156" s="3">
-        <v>51087.547202438102</v>
+        <v>19764.262748375499</v>
       </c>
       <c r="E156" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -15752,13 +15752,13 @@
         <v>8</v>
       </c>
       <c r="B157" s="3">
-        <v>114900208.771201</v>
+        <v>114509721.316617</v>
       </c>
       <c r="C157" s="3">
-        <v>114952650.838755</v>
+        <v>114726951.454945</v>
       </c>
       <c r="D157" s="3">
-        <v>52442.067554056601</v>
+        <v>217230.138327911</v>
       </c>
       <c r="E157" t="s">
         <v>1</v>
@@ -15769,16 +15769,16 @@
         <v>8</v>
       </c>
       <c r="B158" s="3">
-        <v>114790729.91159</v>
+        <v>114510676.452776</v>
       </c>
       <c r="C158" s="3">
-        <v>114844229.620334</v>
+        <v>114554096.387518</v>
       </c>
       <c r="D158" s="3">
-        <v>53499.708744197997</v>
+        <v>43419.934742540099</v>
       </c>
       <c r="E158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -15786,13 +15786,13 @@
         <v>8</v>
       </c>
       <c r="B159" s="3">
-        <v>114455172.66827001</v>
+        <v>114513291.274978</v>
       </c>
       <c r="C159" s="3">
-        <v>114510676.452776</v>
+        <v>114556105.583555</v>
       </c>
       <c r="D159" s="3">
-        <v>55503.784505799398</v>
+        <v>42814.308577284202</v>
       </c>
       <c r="E159" t="s">
         <v>1</v>
@@ -15803,13 +15803,13 @@
         <v>8</v>
       </c>
       <c r="B160" s="3">
-        <v>114264150.35196801</v>
+        <v>114518428.344804</v>
       </c>
       <c r="C160" s="3">
-        <v>114319905.029965</v>
+        <v>114565833.082615</v>
       </c>
       <c r="D160" s="3">
-        <v>55754.677996635401</v>
+        <v>47404.7378102242</v>
       </c>
       <c r="E160" t="s">
         <v>1</v>
@@ -15820,16 +15820,16 @@
         <v>8</v>
       </c>
       <c r="B161" s="3">
-        <v>113884638.00256599</v>
+        <v>114522766.446869</v>
       </c>
       <c r="C161" s="3">
-        <v>113941408.338539</v>
+        <v>114551070.91923501</v>
       </c>
       <c r="D161" s="3">
-        <v>56770.3359728902</v>
+        <v>28304.472365796501</v>
       </c>
       <c r="E161" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -15837,13 +15837,13 @@
         <v>8</v>
       </c>
       <c r="B162" s="3">
-        <v>114741317.61623099</v>
+        <v>114524515.328109</v>
       </c>
       <c r="C162" s="3">
-        <v>114798357.48333301</v>
+        <v>114562347.09676901</v>
       </c>
       <c r="D162" s="3">
-        <v>57039.867102816701</v>
+        <v>37831.768660068497</v>
       </c>
       <c r="E162" t="s">
         <v>1</v>
@@ -15854,16 +15854,16 @@
         <v>8</v>
       </c>
       <c r="B163" s="3">
-        <v>114242645.19561</v>
+        <v>114525864.41825099</v>
       </c>
       <c r="C163" s="3">
-        <v>114300941.783088</v>
+        <v>114567338.648371</v>
       </c>
       <c r="D163" s="3">
-        <v>58296.587478190602</v>
+        <v>41474.2301196306</v>
       </c>
       <c r="E163" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -15871,16 +15871,16 @@
         <v>8</v>
       </c>
       <c r="B164" s="3">
-        <v>114846669.124309</v>
+        <v>114526024.17084099</v>
       </c>
       <c r="C164" s="3">
-        <v>114908862.343714</v>
+        <v>114654910.922038</v>
       </c>
       <c r="D164" s="3">
-        <v>62193.219404816598</v>
+        <v>128886.75119686101</v>
       </c>
       <c r="E164" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -15888,16 +15888,16 @@
         <v>8</v>
       </c>
       <c r="B165" s="3">
-        <v>114592001.37611499</v>
+        <v>114526462.056787</v>
       </c>
       <c r="C165" s="3">
-        <v>114657763.529826</v>
+        <v>114661995.744597</v>
       </c>
       <c r="D165" s="3">
-        <v>65762.153710737795</v>
+        <v>135533.68781071901</v>
       </c>
       <c r="E165" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -15905,16 +15905,16 @@
         <v>8</v>
       </c>
       <c r="B166" s="3">
-        <v>114661962.770024</v>
+        <v>114528118.670665</v>
       </c>
       <c r="C166" s="3">
-        <v>114728120.92582899</v>
+        <v>114846669.124309</v>
       </c>
       <c r="D166" s="3">
-        <v>66158.155804246693</v>
+        <v>318550.453644127</v>
       </c>
       <c r="E166" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -15922,16 +15922,16 @@
         <v>8</v>
       </c>
       <c r="B167" s="3">
-        <v>114614087.683723</v>
+        <v>114530051.574599</v>
       </c>
       <c r="C167" s="3">
-        <v>114681406.70834801</v>
+        <v>114554078.159338</v>
       </c>
       <c r="D167" s="3">
-        <v>67319.024625569597</v>
+        <v>24026.5847385823</v>
       </c>
       <c r="E167" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -15939,16 +15939,16 @@
         <v>8</v>
       </c>
       <c r="B168" s="3">
-        <v>114462259.026912</v>
+        <v>114530609.479799</v>
       </c>
       <c r="C168" s="3">
-        <v>114530051.574599</v>
+        <v>114604136.633443</v>
       </c>
       <c r="D168" s="3">
-        <v>67792.547687500701</v>
+        <v>73527.153644204096</v>
       </c>
       <c r="E168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -15956,13 +15956,13 @@
         <v>8</v>
       </c>
       <c r="B169" s="3">
-        <v>114005333.64467999</v>
+        <v>114538085.081771</v>
       </c>
       <c r="C169" s="3">
-        <v>114074435.753984</v>
+        <v>114609666.530792</v>
       </c>
       <c r="D169" s="3">
-        <v>69102.109304204598</v>
+        <v>71581.449021294698</v>
       </c>
       <c r="E169" t="s">
         <v>1</v>
@@ -15973,13 +15973,13 @@
         <v>8</v>
       </c>
       <c r="B170" s="3">
-        <v>114538085.081771</v>
+        <v>114538618.20483799</v>
       </c>
       <c r="C170" s="3">
-        <v>114609666.530792</v>
+        <v>114697907.922039</v>
       </c>
       <c r="D170" s="3">
-        <v>71581.449021294698</v>
+        <v>159289.717201233</v>
       </c>
       <c r="E170" t="s">
         <v>1</v>
@@ -15990,13 +15990,13 @@
         <v>8</v>
       </c>
       <c r="B171" s="3">
-        <v>114385615.980922</v>
+        <v>114551070.91923501</v>
       </c>
       <c r="C171" s="3">
-        <v>114457856.716594</v>
+        <v>114569858.131046</v>
       </c>
       <c r="D171" s="3">
-        <v>72240.735671952396</v>
+        <v>18787.211811169898</v>
       </c>
       <c r="E171" t="s">
         <v>1</v>
@@ -16007,13 +16007,13 @@
         <v>8</v>
       </c>
       <c r="B172" s="3">
-        <v>114582091.390443</v>
+        <v>114554078.159338</v>
       </c>
       <c r="C172" s="3">
-        <v>114655283.26845901</v>
+        <v>114574622.956857</v>
       </c>
       <c r="D172" s="3">
-        <v>73191.878016009898</v>
+        <v>20544.797518670501</v>
       </c>
       <c r="E172" t="s">
         <v>1</v>
@@ -16024,16 +16024,16 @@
         <v>8</v>
       </c>
       <c r="B173" s="3">
-        <v>114240168.825653</v>
+        <v>114556105.583555</v>
       </c>
       <c r="C173" s="3">
-        <v>114314103.245996</v>
+        <v>114583643.857921</v>
       </c>
       <c r="D173" s="3">
-        <v>73934.420343413905</v>
+        <v>27538.274366393602</v>
       </c>
       <c r="E173" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -16041,13 +16041,13 @@
         <v>8</v>
       </c>
       <c r="B174" s="3">
-        <v>114255451.00419401</v>
+        <v>114558873.399584</v>
       </c>
       <c r="C174" s="3">
-        <v>114330525.914663</v>
+        <v>114687246.27994899</v>
       </c>
       <c r="D174" s="3">
-        <v>75074.910468950897</v>
+        <v>128372.880365416</v>
       </c>
       <c r="E174" t="s">
         <v>1</v>
@@ -16058,16 +16058,16 @@
         <v>8</v>
       </c>
       <c r="B175" s="3">
-        <v>114562527.43286601</v>
+        <v>114562347.09676901</v>
       </c>
       <c r="C175" s="3">
-        <v>114639911.075478</v>
+        <v>114597004.294728</v>
       </c>
       <c r="D175" s="3">
-        <v>77383.642612278505</v>
+        <v>34657.197959542202</v>
       </c>
       <c r="E175" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -16075,13 +16075,13 @@
         <v>8</v>
       </c>
       <c r="B176" s="3">
-        <v>114694065.872247</v>
+        <v>114562527.43286601</v>
       </c>
       <c r="C176" s="3">
-        <v>114771454.942351</v>
+        <v>114639911.075478</v>
       </c>
       <c r="D176" s="3">
-        <v>77389.070104122206</v>
+        <v>77383.642612278505</v>
       </c>
       <c r="E176" t="s">
         <v>1</v>
@@ -16092,16 +16092,16 @@
         <v>8</v>
       </c>
       <c r="B177" s="3">
-        <v>114228812.25979599</v>
+        <v>114563950.869406</v>
       </c>
       <c r="C177" s="3">
-        <v>114306703.321693</v>
+        <v>114834790.392775</v>
       </c>
       <c r="D177" s="3">
-        <v>77891.061896845698</v>
+        <v>270839.523369551</v>
       </c>
       <c r="E177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -16109,16 +16109,16 @@
         <v>8</v>
       </c>
       <c r="B178" s="3">
-        <v>114874356.29628199</v>
+        <v>114566451.40706301</v>
       </c>
       <c r="C178" s="3">
-        <v>114952650.838755</v>
+        <v>114701933.89212</v>
       </c>
       <c r="D178" s="3">
-        <v>78294.542472973495</v>
+        <v>135482.48505750301</v>
       </c>
       <c r="E178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -16126,13 +16126,13 @@
         <v>8</v>
       </c>
       <c r="B179" s="3">
-        <v>114443976.059815</v>
+        <v>114567297.686168</v>
       </c>
       <c r="C179" s="3">
-        <v>114522766.446869</v>
+        <v>114587881.192968</v>
       </c>
       <c r="D179" s="3">
-        <v>78790.387054622202</v>
+        <v>20583.506800115101</v>
       </c>
       <c r="E179" t="s">
         <v>1</v>
@@ -16143,13 +16143,13 @@
         <v>8</v>
       </c>
       <c r="B180" s="3">
-        <v>114604136.633443</v>
+        <v>114569421.16675</v>
       </c>
       <c r="C180" s="3">
-        <v>114684115.333995</v>
+        <v>114576384.74119</v>
       </c>
       <c r="D180" s="3">
-        <v>79978.7005516887</v>
+        <v>6963.5744398385204</v>
       </c>
       <c r="E180" t="s">
         <v>1</v>
@@ -16160,16 +16160,16 @@
         <v>8</v>
       </c>
       <c r="B181" s="3">
-        <v>114488623.222147</v>
+        <v>114569858.131046</v>
       </c>
       <c r="C181" s="3">
-        <v>114568704.328205</v>
+        <v>114611891.39282601</v>
       </c>
       <c r="D181" s="3">
-        <v>80081.106058180303</v>
+        <v>42033.2617794424</v>
       </c>
       <c r="E181" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -16177,13 +16177,13 @@
         <v>8</v>
       </c>
       <c r="B182" s="3">
-        <v>114661995.744597</v>
+        <v>114571144.24180201</v>
       </c>
       <c r="C182" s="3">
-        <v>114746203.690161</v>
+        <v>114859927.66763701</v>
       </c>
       <c r="D182" s="3">
-        <v>84207.945563331203</v>
+        <v>288783.425834939</v>
       </c>
       <c r="E182" t="s">
         <v>1</v>
@@ -16194,13 +16194,13 @@
         <v>8</v>
       </c>
       <c r="B183" s="3">
-        <v>114700323.77034201</v>
+        <v>114571930.101659</v>
       </c>
       <c r="C183" s="3">
-        <v>114787806.439191</v>
+        <v>114733167.571593</v>
       </c>
       <c r="D183" s="3">
-        <v>87482.668849185095</v>
+        <v>161237.469934255</v>
       </c>
       <c r="E183" t="s">
         <v>1</v>
@@ -16211,16 +16211,16 @@
         <v>8</v>
       </c>
       <c r="B184" s="3">
-        <v>114477334.653547</v>
+        <v>114574622.956857</v>
       </c>
       <c r="C184" s="3">
-        <v>114567349.093732</v>
+        <v>114614087.683723</v>
       </c>
       <c r="D184" s="3">
-        <v>90014.440185591593</v>
+        <v>39464.726866215402</v>
       </c>
       <c r="E184" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -16228,13 +16228,13 @@
         <v>8</v>
       </c>
       <c r="B185" s="3">
-        <v>114802860.45826399</v>
+        <v>114582091.390443</v>
       </c>
       <c r="C185" s="3">
-        <v>114896328.11453301</v>
+        <v>114655283.26845901</v>
       </c>
       <c r="D185" s="3">
-        <v>93467.656269207597</v>
+        <v>73191.878016009898</v>
       </c>
       <c r="E185" t="s">
         <v>1</v>
@@ -16245,16 +16245,16 @@
         <v>8</v>
       </c>
       <c r="B186" s="3">
-        <v>113884638.00256599</v>
+        <v>114587881.192968</v>
       </c>
       <c r="C186" s="3">
-        <v>113979441.33401901</v>
+        <v>114689435.607272</v>
       </c>
       <c r="D186" s="3">
-        <v>94803.331453159495</v>
+        <v>101554.414303988</v>
       </c>
       <c r="E186" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -16262,13 +16262,13 @@
         <v>8</v>
       </c>
       <c r="B187" s="3">
-        <v>114425912.650123</v>
+        <v>114592001.37611499</v>
       </c>
       <c r="C187" s="3">
-        <v>114521423.70586801</v>
+        <v>114657763.529826</v>
       </c>
       <c r="D187" s="3">
-        <v>95511.055745273799</v>
+        <v>65762.153710737795</v>
       </c>
       <c r="E187" t="s">
         <v>1</v>
@@ -16279,13 +16279,13 @@
         <v>8</v>
       </c>
       <c r="B188" s="3">
-        <v>114197258.05108801</v>
+        <v>114597004.294728</v>
       </c>
       <c r="C188" s="3">
-        <v>114293883.278744</v>
+        <v>114721306.55621199</v>
       </c>
       <c r="D188" s="3">
-        <v>96625.2276556492</v>
+        <v>124302.261483312</v>
       </c>
       <c r="E188" t="s">
         <v>1</v>
@@ -16296,16 +16296,16 @@
         <v>8</v>
       </c>
       <c r="B189" s="3">
-        <v>114850831.49852499</v>
+        <v>114598618.51272701</v>
       </c>
       <c r="C189" s="3">
-        <v>114952650.838755</v>
+        <v>114723297.21685199</v>
       </c>
       <c r="D189" s="3">
-        <v>101819.34022986901</v>
+        <v>124678.704125077</v>
       </c>
       <c r="E189" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -16313,13 +16313,13 @@
         <v>8</v>
       </c>
       <c r="B190" s="3">
-        <v>114833702.94870199</v>
+        <v>114604136.633443</v>
       </c>
       <c r="C190" s="3">
-        <v>114939574.77915899</v>
+        <v>114684115.333995</v>
       </c>
       <c r="D190" s="3">
-        <v>105871.830456704</v>
+        <v>79978.7005516887</v>
       </c>
       <c r="E190" t="s">
         <v>1</v>
@@ -16330,13 +16330,13 @@
         <v>8</v>
       </c>
       <c r="B191" s="3">
-        <v>114328909.238932</v>
+        <v>114604970.82869899</v>
       </c>
       <c r="C191" s="3">
-        <v>114434947.78555299</v>
+        <v>114784429.00318199</v>
       </c>
       <c r="D191" s="3">
-        <v>106038.546621218</v>
+        <v>179458.17448362699</v>
       </c>
       <c r="E191" t="s">
         <v>1</v>
@@ -16347,16 +16347,16 @@
         <v>8</v>
       </c>
       <c r="B192" s="3">
-        <v>114835255.825802</v>
+        <v>114609732.787155</v>
       </c>
       <c r="C192" s="3">
-        <v>114945587.928093</v>
+        <v>114710907.072219</v>
       </c>
       <c r="D192" s="3">
-        <v>110332.102290928</v>
+        <v>101174.28506396701</v>
       </c>
       <c r="E192" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -16364,13 +16364,13 @@
         <v>8</v>
       </c>
       <c r="B193" s="3">
-        <v>114166421.295358</v>
+        <v>114611891.39282601</v>
       </c>
       <c r="C193" s="3">
-        <v>114280342.301029</v>
+        <v>114652381.19881199</v>
       </c>
       <c r="D193" s="3">
-        <v>113921.005670592</v>
+        <v>40489.805985957297</v>
       </c>
       <c r="E193" t="s">
         <v>1</v>
@@ -16381,13 +16381,13 @@
         <v>8</v>
       </c>
       <c r="B194" s="3">
-        <v>114308264.49363901</v>
+        <v>114614087.683723</v>
       </c>
       <c r="C194" s="3">
-        <v>114428384.002211</v>
+        <v>114681406.70834801</v>
       </c>
       <c r="D194" s="3">
-        <v>120119.50857161</v>
+        <v>67319.024625569597</v>
       </c>
       <c r="E194" t="s">
         <v>1</v>
@@ -16415,16 +16415,16 @@
         <v>8</v>
       </c>
       <c r="B196" s="3">
-        <v>114767925.024543</v>
+        <v>114652381.19881199</v>
       </c>
       <c r="C196" s="3">
-        <v>114888281.39705101</v>
+        <v>114670853.820907</v>
       </c>
       <c r="D196" s="3">
-        <v>120356.372508079</v>
+        <v>18472.622095286799</v>
       </c>
       <c r="E196" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -16432,13 +16432,13 @@
         <v>8</v>
       </c>
       <c r="B197" s="3">
-        <v>114815600.72732399</v>
+        <v>114654910.922038</v>
       </c>
       <c r="C197" s="3">
-        <v>114937027.032563</v>
+        <v>114803152.21155199</v>
       </c>
       <c r="D197" s="3">
-        <v>121426.30523964801</v>
+        <v>148241.289513886</v>
       </c>
       <c r="E197" t="s">
         <v>1</v>
@@ -16449,16 +16449,16 @@
         <v>8</v>
       </c>
       <c r="B198" s="3">
-        <v>114830599.037801</v>
+        <v>114661637.325325</v>
       </c>
       <c r="C198" s="3">
-        <v>114952650.838755</v>
+        <v>114750474.10218599</v>
       </c>
       <c r="D198" s="3">
-        <v>122051.800953805</v>
+        <v>88836.776861190796</v>
       </c>
       <c r="E198" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -16466,13 +16466,13 @@
         <v>8</v>
       </c>
       <c r="B199" s="3">
-        <v>114829479.950426</v>
+        <v>114661962.770024</v>
       </c>
       <c r="C199" s="3">
-        <v>114952650.838755</v>
+        <v>114728120.92582899</v>
       </c>
       <c r="D199" s="3">
-        <v>123170.88832849301</v>
+        <v>66158.155804246693</v>
       </c>
       <c r="E199" t="s">
         <v>1</v>
@@ -16483,13 +16483,13 @@
         <v>8</v>
       </c>
       <c r="B200" s="3">
-        <v>114280125.61097699</v>
+        <v>114661995.744597</v>
       </c>
       <c r="C200" s="3">
-        <v>114404343.49032301</v>
+        <v>114746203.690161</v>
       </c>
       <c r="D200" s="3">
-        <v>124217.879345983</v>
+        <v>84207.945563331203</v>
       </c>
       <c r="E200" t="s">
         <v>1</v>
@@ -16500,16 +16500,16 @@
         <v>8</v>
       </c>
       <c r="B201" s="3">
-        <v>114597004.294728</v>
+        <v>114665682.34283</v>
       </c>
       <c r="C201" s="3">
-        <v>114721306.55621199</v>
+        <v>114734396.43767001</v>
       </c>
       <c r="D201" s="3">
-        <v>124302.261483312</v>
+        <v>68714.094840183898</v>
       </c>
       <c r="E201" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -16517,13 +16517,13 @@
         <v>8</v>
       </c>
       <c r="B202" s="3">
-        <v>114558873.399584</v>
+        <v>114670853.820907</v>
       </c>
       <c r="C202" s="3">
-        <v>114687246.27994899</v>
+        <v>114801497.64578401</v>
       </c>
       <c r="D202" s="3">
-        <v>128372.880365416</v>
+        <v>130643.82487687501</v>
       </c>
       <c r="E202" t="s">
         <v>1</v>
@@ -16534,16 +16534,16 @@
         <v>8</v>
       </c>
       <c r="B203" s="3">
-        <v>114800652.800355</v>
+        <v>114677110.38773</v>
       </c>
       <c r="C203" s="3">
-        <v>114929251.075241</v>
+        <v>114741317.61623099</v>
       </c>
       <c r="D203" s="3">
-        <v>128598.274885163</v>
+        <v>64207.228500515201</v>
       </c>
       <c r="E203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -16551,13 +16551,13 @@
         <v>8</v>
       </c>
       <c r="B204" s="3">
-        <v>114670853.820907</v>
+        <v>114694065.872247</v>
       </c>
       <c r="C204" s="3">
-        <v>114801497.64578401</v>
+        <v>114771454.942351</v>
       </c>
       <c r="D204" s="3">
-        <v>130643.82487687501</v>
+        <v>77389.070104122206</v>
       </c>
       <c r="E204" t="s">
         <v>1</v>
@@ -16568,16 +16568,16 @@
         <v>8</v>
       </c>
       <c r="B205" s="3">
-        <v>114784448.15301199</v>
+        <v>114697907.922039</v>
       </c>
       <c r="C205" s="3">
-        <v>114920630.78451701</v>
+        <v>114793749.235542</v>
       </c>
       <c r="D205" s="3">
-        <v>136182.63150520599</v>
+        <v>95841.313503622994</v>
       </c>
       <c r="E205" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -16585,13 +16585,13 @@
         <v>8</v>
       </c>
       <c r="B206" s="3">
-        <v>114813924.34918299</v>
+        <v>114700323.77034201</v>
       </c>
       <c r="C206" s="3">
-        <v>114952650.838755</v>
+        <v>114787806.439191</v>
       </c>
       <c r="D206" s="3">
-        <v>138726.48957204801</v>
+        <v>87482.668849185095</v>
       </c>
       <c r="E206" t="s">
         <v>1</v>
@@ -16602,16 +16602,16 @@
         <v>8</v>
       </c>
       <c r="B207" s="3">
-        <v>114491490.781139</v>
+        <v>114711528.05921</v>
       </c>
       <c r="C207" s="3">
-        <v>114631382.028061</v>
+        <v>114750513.323495</v>
       </c>
       <c r="D207" s="3">
-        <v>139891.24692194199</v>
+        <v>38985.2642849236</v>
       </c>
       <c r="E207" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -16619,13 +16619,13 @@
         <v>8</v>
       </c>
       <c r="B208" s="3">
-        <v>114229201.298315</v>
+        <v>114723297.21685199</v>
       </c>
       <c r="C208" s="3">
-        <v>114369599.964522</v>
+        <v>114743203.31122699</v>
       </c>
       <c r="D208" s="3">
-        <v>140398.66620650899</v>
+        <v>19906.0943748354</v>
       </c>
       <c r="E208" t="s">
         <v>1</v>
@@ -16636,13 +16636,13 @@
         <v>8</v>
       </c>
       <c r="B209" s="3">
-        <v>114195641.58016901</v>
+        <v>114726848.3326</v>
       </c>
       <c r="C209" s="3">
-        <v>114338190.5572</v>
+        <v>114734119.123559</v>
       </c>
       <c r="D209" s="3">
-        <v>142548.977031335</v>
+        <v>7270.7909592389997</v>
       </c>
       <c r="E209" t="s">
         <v>1</v>
@@ -16653,16 +16653,16 @@
         <v>8</v>
       </c>
       <c r="B210" s="3">
-        <v>114253602.584802</v>
+        <v>114728120.92582899</v>
       </c>
       <c r="C210" s="3">
-        <v>114398711.18746801</v>
+        <v>114784448.15301199</v>
       </c>
       <c r="D210" s="3">
-        <v>145108.60266548401</v>
+        <v>56327.227183297196</v>
       </c>
       <c r="E210" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -16670,16 +16670,16 @@
         <v>8</v>
       </c>
       <c r="B211" s="3">
-        <v>114407189.134537</v>
+        <v>114733236.38809299</v>
       </c>
       <c r="C211" s="3">
-        <v>114553998.283043</v>
+        <v>114790729.91159</v>
       </c>
       <c r="D211" s="3">
-        <v>146809.148505911</v>
+        <v>57493.523496478701</v>
       </c>
       <c r="E211" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -16687,16 +16687,16 @@
         <v>8</v>
       </c>
       <c r="B212" s="3">
-        <v>114314757.10515501</v>
+        <v>114734119.123559</v>
       </c>
       <c r="C212" s="3">
-        <v>114462733.062001</v>
+        <v>114754497.819346</v>
       </c>
       <c r="D212" s="3">
-        <v>147975.95684661</v>
+        <v>20378.695787176399</v>
       </c>
       <c r="E212" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -16704,13 +16704,13 @@
         <v>8</v>
       </c>
       <c r="B213" s="3">
-        <v>114654910.922038</v>
+        <v>114739557.060763</v>
       </c>
       <c r="C213" s="3">
-        <v>114803152.21155199</v>
+        <v>114910683.72805201</v>
       </c>
       <c r="D213" s="3">
-        <v>148241.289513886</v>
+        <v>171126.667288378</v>
       </c>
       <c r="E213" t="s">
         <v>1</v>
@@ -16721,13 +16721,13 @@
         <v>8</v>
       </c>
       <c r="B214" s="3">
-        <v>114273264.442044</v>
+        <v>114741317.61623099</v>
       </c>
       <c r="C214" s="3">
-        <v>114425096.78545301</v>
+        <v>114798357.48333301</v>
       </c>
       <c r="D214" s="3">
-        <v>151832.34340918099</v>
+        <v>57039.867102816701</v>
       </c>
       <c r="E214" t="s">
         <v>1</v>
@@ -16738,16 +16738,16 @@
         <v>8</v>
       </c>
       <c r="B215" s="3">
-        <v>114354051.531664</v>
+        <v>114743203.31122699</v>
       </c>
       <c r="C215" s="3">
-        <v>114508638.071169</v>
+        <v>114754007.092159</v>
       </c>
       <c r="D215" s="3">
-        <v>154586.539505661</v>
+        <v>10803.780932396599</v>
       </c>
       <c r="E215" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -16755,16 +16755,16 @@
         <v>8</v>
       </c>
       <c r="B216" s="3">
-        <v>114750513.323495</v>
+        <v>114746203.690161</v>
       </c>
       <c r="C216" s="3">
-        <v>114907260.926404</v>
+        <v>114813924.34918299</v>
       </c>
       <c r="D216" s="3">
-        <v>156747.60290867099</v>
+        <v>67720.659021928906</v>
       </c>
       <c r="E216" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -16772,13 +16772,13 @@
         <v>8</v>
       </c>
       <c r="B217" s="3">
-        <v>114538618.20483799</v>
+        <v>114750513.323495</v>
       </c>
       <c r="C217" s="3">
-        <v>114697907.922039</v>
+        <v>114907260.926404</v>
       </c>
       <c r="D217" s="3">
-        <v>159289.717201233</v>
+        <v>156747.60290867099</v>
       </c>
       <c r="E217" t="s">
         <v>1</v>
@@ -16789,13 +16789,13 @@
         <v>8</v>
       </c>
       <c r="B218" s="3">
-        <v>114571930.101659</v>
+        <v>114754497.819346</v>
       </c>
       <c r="C218" s="3">
-        <v>114733167.571593</v>
+        <v>114925177.69141001</v>
       </c>
       <c r="D218" s="3">
-        <v>161237.469934255</v>
+        <v>170679.87206366699</v>
       </c>
       <c r="E218" t="s">
         <v>1</v>
@@ -16806,13 +16806,13 @@
         <v>8</v>
       </c>
       <c r="B219" s="3">
-        <v>114410953.76576599</v>
+        <v>114767925.024543</v>
       </c>
       <c r="C219" s="3">
-        <v>114572931.115484</v>
+        <v>114888281.39705101</v>
       </c>
       <c r="D219" s="3">
-        <v>161977.34971848101</v>
+        <v>120356.372508079</v>
       </c>
       <c r="E219" t="s">
         <v>1</v>
@@ -16823,13 +16823,13 @@
         <v>8</v>
       </c>
       <c r="B220" s="3">
-        <v>114262170.648717</v>
+        <v>114784448.15301199</v>
       </c>
       <c r="C220" s="3">
-        <v>114425312.45145001</v>
+        <v>114920630.78451701</v>
       </c>
       <c r="D220" s="3">
-        <v>163141.80273254201</v>
+        <v>136182.63150520599</v>
       </c>
       <c r="E220" t="s">
         <v>1</v>
@@ -16840,16 +16840,16 @@
         <v>8</v>
       </c>
       <c r="B221" s="3">
-        <v>114211617.35120501</v>
+        <v>114785745.42596801</v>
       </c>
       <c r="C221" s="3">
-        <v>114379103.912361</v>
+        <v>114830599.037801</v>
       </c>
       <c r="D221" s="3">
-        <v>167486.561155453</v>
+        <v>44853.6118330955</v>
       </c>
       <c r="E221" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -16857,13 +16857,13 @@
         <v>8</v>
       </c>
       <c r="B222" s="3">
-        <v>114754497.819346</v>
+        <v>114790729.91159</v>
       </c>
       <c r="C222" s="3">
-        <v>114925177.69141001</v>
+        <v>114844229.620334</v>
       </c>
       <c r="D222" s="3">
-        <v>170679.87206366699</v>
+        <v>53499.708744197997</v>
       </c>
       <c r="E222" t="s">
         <v>1</v>
@@ -16874,13 +16874,13 @@
         <v>8</v>
       </c>
       <c r="B223" s="3">
-        <v>114395007.180299</v>
+        <v>114800652.800355</v>
       </c>
       <c r="C223" s="3">
-        <v>114566109.37267099</v>
+        <v>114929251.075241</v>
       </c>
       <c r="D223" s="3">
-        <v>171102.19237233701</v>
+        <v>128598.274885163</v>
       </c>
       <c r="E223" t="s">
         <v>1</v>
@@ -16891,13 +16891,13 @@
         <v>8</v>
       </c>
       <c r="B224" s="3">
-        <v>114739557.060763</v>
+        <v>114802860.45826399</v>
       </c>
       <c r="C224" s="3">
-        <v>114910683.72805201</v>
+        <v>114896328.11453301</v>
       </c>
       <c r="D224" s="3">
-        <v>171126.667288378</v>
+        <v>93467.656269207597</v>
       </c>
       <c r="E224" t="s">
         <v>1</v>
@@ -16908,13 +16908,13 @@
         <v>8</v>
       </c>
       <c r="B225" s="3">
-        <v>114484498.737968</v>
+        <v>114813924.34918299</v>
       </c>
       <c r="C225" s="3">
-        <v>114658554.30514701</v>
+        <v>114952650.838755</v>
       </c>
       <c r="D225" s="3">
-        <v>174055.567178875</v>
+        <v>138726.48957204801</v>
       </c>
       <c r="E225" t="s">
         <v>1</v>
@@ -16925,13 +16925,13 @@
         <v>8</v>
       </c>
       <c r="B226" s="3">
-        <v>114433290.45483699</v>
+        <v>114815600.72732399</v>
       </c>
       <c r="C226" s="3">
-        <v>114609732.787155</v>
+        <v>114937027.032563</v>
       </c>
       <c r="D226" s="3">
-        <v>176442.332318142</v>
+        <v>121426.30523964801</v>
       </c>
       <c r="E226" t="s">
         <v>1</v>
@@ -16942,13 +16942,13 @@
         <v>8</v>
       </c>
       <c r="B227" s="3">
-        <v>114427236.241294</v>
+        <v>114829479.950426</v>
       </c>
       <c r="C227" s="3">
-        <v>114605626.633562</v>
+        <v>114952650.838755</v>
       </c>
       <c r="D227" s="3">
-        <v>178390.39226768899</v>
+        <v>123170.88832849301</v>
       </c>
       <c r="E227" t="s">
         <v>1</v>
@@ -16959,13 +16959,13 @@
         <v>8</v>
       </c>
       <c r="B228" s="3">
-        <v>114202148.938077</v>
+        <v>114830599.037801</v>
       </c>
       <c r="C228" s="3">
-        <v>114381228.007376</v>
+        <v>114952650.838755</v>
       </c>
       <c r="D228" s="3">
-        <v>179079.06929866999</v>
+        <v>122051.800953805</v>
       </c>
       <c r="E228" t="s">
         <v>1</v>
@@ -16976,13 +16976,13 @@
         <v>8</v>
       </c>
       <c r="B229" s="3">
-        <v>114227489.18065301</v>
+        <v>114833702.94870199</v>
       </c>
       <c r="C229" s="3">
-        <v>114406734.761305</v>
+        <v>114939574.77915899</v>
       </c>
       <c r="D229" s="3">
-        <v>179245.580652192</v>
+        <v>105871.830456704</v>
       </c>
       <c r="E229" t="s">
         <v>1</v>
@@ -16993,13 +16993,13 @@
         <v>8</v>
       </c>
       <c r="B230" s="3">
-        <v>114604970.82869899</v>
+        <v>114835255.825802</v>
       </c>
       <c r="C230" s="3">
-        <v>114784429.00318199</v>
+        <v>114945587.928093</v>
       </c>
       <c r="D230" s="3">
-        <v>179458.17448362699</v>
+        <v>110332.102290928</v>
       </c>
       <c r="E230" t="s">
         <v>1</v>
@@ -17010,13 +17010,13 @@
         <v>8</v>
       </c>
       <c r="B231" s="3">
-        <v>114359057.11282</v>
+        <v>114846669.124309</v>
       </c>
       <c r="C231" s="3">
-        <v>114541350.486156</v>
+        <v>114908862.343714</v>
       </c>
       <c r="D231" s="3">
-        <v>182293.373335704</v>
+        <v>62193.219404816598</v>
       </c>
       <c r="E231" t="s">
         <v>1</v>
@@ -17027,13 +17027,13 @@
         <v>8</v>
       </c>
       <c r="B232" s="3">
-        <v>114509721.316617</v>
+        <v>114850831.49852499</v>
       </c>
       <c r="C232" s="3">
-        <v>114726951.454945</v>
+        <v>114952650.838755</v>
       </c>
       <c r="D232" s="3">
-        <v>217230.138327911</v>
+        <v>101819.34022986901</v>
       </c>
       <c r="E232" t="s">
         <v>1</v>
@@ -17044,13 +17044,13 @@
         <v>8</v>
       </c>
       <c r="B233" s="3">
-        <v>114247745.809076</v>
+        <v>114874356.29628199</v>
       </c>
       <c r="C233" s="3">
-        <v>114465524.32889099</v>
+        <v>114952650.838755</v>
       </c>
       <c r="D233" s="3">
-        <v>217778.51981505801</v>
+        <v>78294.542472973495</v>
       </c>
       <c r="E233" t="s">
         <v>1</v>
@@ -17061,16 +17061,16 @@
         <v>8</v>
       </c>
       <c r="B234" s="3">
-        <v>114402168.60217699</v>
+        <v>114875601.13761801</v>
       </c>
       <c r="C234" s="3">
-        <v>114671763.28421</v>
+        <v>114899051.99860001</v>
       </c>
       <c r="D234" s="3">
-        <v>269594.68203291303</v>
+        <v>23450.860981225898</v>
       </c>
       <c r="E234" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -17078,13 +17078,13 @@
         <v>8</v>
       </c>
       <c r="B235" s="3">
-        <v>114424158.955825</v>
+        <v>114899051.99860001</v>
       </c>
       <c r="C235" s="3">
-        <v>114698335.465028</v>
+        <v>114946434.92403699</v>
       </c>
       <c r="D235" s="3">
-        <v>274176.50920331501</v>
+        <v>47382.925437361002</v>
       </c>
       <c r="E235" t="s">
         <v>1</v>
@@ -17095,13 +17095,13 @@
         <v>8</v>
       </c>
       <c r="B236" s="3">
-        <v>114248154.202236</v>
+        <v>114900208.771201</v>
       </c>
       <c r="C236" s="3">
-        <v>114531469.481242</v>
+        <v>114952650.838755</v>
       </c>
       <c r="D236" s="3">
-        <v>283315.279006064</v>
+        <v>52442.067554056601</v>
       </c>
       <c r="E236" t="s">
         <v>1</v>
@@ -17112,13 +17112,13 @@
         <v>8</v>
       </c>
       <c r="B237" s="3">
-        <v>114571144.24180201</v>
+        <v>114903315.44705001</v>
       </c>
       <c r="C237" s="3">
-        <v>114859927.66763701</v>
+        <v>114952650.838755</v>
       </c>
       <c r="D237" s="3">
-        <v>288783.425834939</v>
+        <v>49335.3917043209</v>
       </c>
       <c r="E237" t="s">
         <v>1</v>
@@ -17129,13 +17129,13 @@
         <v>8</v>
       </c>
       <c r="B238" s="3">
-        <v>114274186.091602</v>
+        <v>114913898.748927</v>
       </c>
       <c r="C238" s="3">
-        <v>114566451.40706301</v>
+        <v>114952650.838755</v>
       </c>
       <c r="D238" s="3">
-        <v>292265.31546036899</v>
+        <v>38752.0898273438</v>
       </c>
       <c r="E238" t="s">
         <v>1</v>
@@ -17146,13 +17146,13 @@
         <v>8</v>
       </c>
       <c r="B239" s="3">
-        <v>114271400.45701499</v>
+        <v>114917804.699755</v>
       </c>
       <c r="C239" s="3">
-        <v>114566734.04626</v>
+        <v>114952650.838755</v>
       </c>
       <c r="D239" s="3">
-        <v>295333.58924517001</v>
+        <v>34846.138999640898</v>
       </c>
       <c r="E239" t="s">
         <v>1</v>
@@ -17163,13 +17163,13 @@
         <v>8</v>
       </c>
       <c r="B240" s="3">
-        <v>114202202.49615701</v>
+        <v>114937658.05529401</v>
       </c>
       <c r="C240" s="3">
-        <v>114512491.180756</v>
+        <v>114952650.838755</v>
       </c>
       <c r="D240" s="3">
-        <v>310288.68459877401</v>
+        <v>14992.783460631899</v>
       </c>
       <c r="E240" t="s">
         <v>1</v>
@@ -17180,19 +17180,22 @@
         <v>8</v>
       </c>
       <c r="B241" s="3">
-        <v>114252107.771624</v>
+        <v>114951598.51689</v>
       </c>
       <c r="C241" s="3">
-        <v>114663496.394889</v>
+        <v>114952650.838755</v>
       </c>
       <c r="D241" s="3">
-        <v>411388.62326505798</v>
+        <v>1052.3218651115801</v>
       </c>
       <c r="E241" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E241">
+    <sortCondition ref="B2:B241"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
